--- a/results.xlsx
+++ b/results.xlsx
@@ -340,13 +340,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U100"/>
+  <dimension ref="A1:V100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22">
       <c r="A1">
         <v>0</v>
       </c>
@@ -360,58 +360,61 @@
         <v>10</v>
       </c>
       <c r="E1">
-        <v>359.8815920194119</v>
+        <v>359.9478600851758</v>
       </c>
       <c r="F1">
-        <v>16.5097970857262</v>
+        <v>19.71448837194744</v>
       </c>
       <c r="G1">
-        <v>42.67321747353913</v>
+        <v>45.52278324951912</v>
       </c>
       <c r="H1">
-        <v>8.308684423584053</v>
+        <v>9.696862679037974</v>
       </c>
       <c r="I1">
-        <v>90</v>
+        <v>1.818392776842082E-15</v>
       </c>
       <c r="J1">
-        <v>0</v>
+        <v>29.69660767672961</v>
       </c>
       <c r="K1">
-        <v>90</v>
+        <v>8.602197298368148</v>
       </c>
       <c r="L1">
-        <v>0</v>
+        <v>-6.900065796819673</v>
       </c>
       <c r="M1">
-        <v>0</v>
+        <v>0.04017779530109419</v>
       </c>
       <c r="N1">
-        <v>0</v>
+        <v>0.7095931572669171</v>
       </c>
       <c r="O1">
-        <v>0</v>
+        <v>0.4468705846810713</v>
       </c>
       <c r="P1">
-        <v>0</v>
+        <v>0.8930279671664385</v>
       </c>
       <c r="Q1">
-        <v>0.1126363650626977</v>
+        <v>0.9784028210624576</v>
       </c>
       <c r="R1">
-        <v>0.8014506952686913</v>
+        <v>0.1256815258555773</v>
       </c>
       <c r="S1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T1">
-        <v>0.003995656967163086</v>
+        <v>0.003235700000000064</v>
       </c>
       <c r="U1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2">
         <v>0</v>
       </c>
@@ -425,58 +428,61 @@
         <v>10</v>
       </c>
       <c r="E2">
-        <v>359.8139048130269</v>
+        <v>359.8483118545779</v>
       </c>
       <c r="F2">
-        <v>16.27822014045087</v>
+        <v>19.38145216551333</v>
       </c>
       <c r="G2">
-        <v>41.50023344811049</v>
+        <v>41.18849142868817</v>
       </c>
       <c r="H2">
-        <v>8.533119865786878</v>
+        <v>11.07866255016294</v>
       </c>
       <c r="I2">
-        <v>90</v>
+        <v>1.455247192061133E-15</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>23.76599021161583</v>
       </c>
       <c r="K2">
-        <v>90</v>
+        <v>3.850195708409063</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>-3.191775649515925</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.04027181275740146</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>0.7088310188155361</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>0.4626850757307277</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.9413338470643211</v>
       </c>
       <c r="Q2">
-        <v>0.1165742283346827</v>
+        <v>0.9725734885897795</v>
       </c>
       <c r="R2">
-        <v>0.8108863157228849</v>
+        <v>0.4544210410529452</v>
       </c>
       <c r="S2">
         <v>0</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>0.003278799999999915</v>
       </c>
       <c r="U2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3">
         <v>0</v>
       </c>
@@ -490,58 +496,61 @@
         <v>10</v>
       </c>
       <c r="E3">
-        <v>359.8703180273728</v>
+        <v>359.8981947738484</v>
       </c>
       <c r="F3">
-        <v>16.32180585536394</v>
+        <v>19.30942466543788</v>
       </c>
       <c r="G3">
-        <v>42.62915055492686</v>
+        <v>44.62270942050951</v>
       </c>
       <c r="H3">
-        <v>8.187502098769016</v>
+        <v>9.739961230685457</v>
       </c>
       <c r="I3">
-        <v>90</v>
+        <v>1.507526162830567E-15</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>24.61977059639017</v>
       </c>
       <c r="K3">
-        <v>90</v>
+        <v>0.8540015345061691</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>10.46182647178342</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.03894604888999099</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>0.6698341459747611</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>0.4270017764649894</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.865131431442282</v>
       </c>
       <c r="Q3">
-        <v>0.1158695126976572</v>
+        <v>0.9488230350044001</v>
       </c>
       <c r="R3">
-        <v>0.851332383311052</v>
+        <v>0.1574412079006435</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T3">
-        <v>0.001000165939331055</v>
+        <v>0.006813600000000086</v>
       </c>
       <c r="U3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>29</v>
+      </c>
+      <c r="V3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4">
         <v>0</v>
       </c>
@@ -555,58 +564,61 @@
         <v>10</v>
       </c>
       <c r="E4">
-        <v>359.8747592047083</v>
+        <v>0.3174963045642702</v>
       </c>
       <c r="F4">
-        <v>16.29092320155107</v>
+        <v>18.20514184248228</v>
       </c>
       <c r="G4">
-        <v>42.22991046725484</v>
+        <v>49.91605119338585</v>
       </c>
       <c r="H4">
-        <v>8.27204735540645</v>
+        <v>7.615570665884274</v>
       </c>
       <c r="I4">
-        <v>90</v>
+        <v>1.823860698608155E-15</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>29.7859056158559</v>
       </c>
       <c r="K4">
-        <v>90</v>
+        <v>6.277474115144306</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>-4.811065301696546</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.03637455795867863</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>0.5727014644617119</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>0.3644252234011691</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.7690256340148541</v>
       </c>
       <c r="Q4">
-        <v>0.1134700472994044</v>
+        <v>1.020470963576908</v>
       </c>
       <c r="R4">
-        <v>0.8416403314940155</v>
+        <v>0.9479542026311185</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0</v>
+        <v>0.002605799999999991</v>
       </c>
       <c r="U4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5">
         <v>0</v>
       </c>
@@ -620,58 +632,61 @@
         <v>10</v>
       </c>
       <c r="E5">
-        <v>0.3396284523943974</v>
+        <v>0.1197561886893654</v>
       </c>
       <c r="F5">
-        <v>15.98001270594784</v>
+        <v>20.24519033391821</v>
       </c>
       <c r="G5">
-        <v>46.84229044109333</v>
+        <v>49.09376840626786</v>
       </c>
       <c r="H5">
-        <v>6.619869951687341</v>
+        <v>8.9714188711906</v>
       </c>
       <c r="I5">
-        <v>90</v>
+        <v>2.970769193100017E-15</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>48.51634275561545</v>
       </c>
       <c r="K5">
-        <v>90</v>
+        <v>14.56501336063115</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>-2.177224888052284</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.03998512913015264</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>0.7290873227419969</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.4463887216459888</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.8736185549225154</v>
       </c>
       <c r="Q5">
-        <v>0.1210612560218636</v>
+        <v>0.9614408198336186</v>
       </c>
       <c r="R5">
-        <v>1.310995827375113</v>
+        <v>0.4098610673579051</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0.0009989738464355469</v>
+        <v>0.002880699999999958</v>
       </c>
       <c r="U5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6">
         <v>0</v>
       </c>
@@ -685,58 +700,61 @@
         <v>10</v>
       </c>
       <c r="E6">
-        <v>0.2395395630599379</v>
+        <v>359.8885288057424</v>
       </c>
       <c r="F6">
-        <v>15.99973060142536</v>
+        <v>21.43951966097768</v>
       </c>
       <c r="G6">
-        <v>45.36005273621104</v>
+        <v>42.8988676543699</v>
       </c>
       <c r="H6">
-        <v>7.000103120571008</v>
+        <v>11.6952028824375</v>
       </c>
       <c r="I6">
-        <v>90</v>
+        <v>9.178539592039837E-16</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>14.98969269903828</v>
       </c>
       <c r="K6">
-        <v>90</v>
+        <v>2.791791182255012</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>-6.492387730800617</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.04442833234504569</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>0.8826287524624354</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.5490983115299044</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>1.058680449324192</v>
       </c>
       <c r="Q6">
-        <v>0.123504356285565</v>
+        <v>0.9659345504247872</v>
       </c>
       <c r="R6">
-        <v>1.152216212242061</v>
+        <v>0.6241567995626697</v>
       </c>
       <c r="S6">
         <v>0</v>
       </c>
       <c r="T6">
-        <v>0.001000642776489258</v>
+        <v>0.003006400000000076</v>
       </c>
       <c r="U6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7">
         <v>0</v>
       </c>
@@ -750,58 +768,61 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <v>359.9680119212976</v>
+        <v>359.8076313053917</v>
       </c>
       <c r="F7">
-        <v>16.29366990132315</v>
+        <v>20.10603531537837</v>
       </c>
       <c r="G7">
-        <v>43.3667019435353</v>
+        <v>41.63505528070425</v>
       </c>
       <c r="H7">
-        <v>7.873072099704555</v>
+        <v>11.33834580489541</v>
       </c>
       <c r="I7">
-        <v>90</v>
+        <v>2.766397934507059E-15</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>45.17870681462007</v>
       </c>
       <c r="K7">
-        <v>90</v>
+        <v>11.41398561169014</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.654740567275863</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.0421158330129467</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>0.7701426148050019</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>0.4933616042640573</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.9879795329511064</v>
       </c>
       <c r="Q7">
-        <v>0.0997924462321408</v>
+        <v>0.97552756997671</v>
       </c>
       <c r="R7">
-        <v>0.8894222877174819</v>
+        <v>0.4756385191398582</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>0.001000165939331055</v>
+        <v>0.002653099999999853</v>
       </c>
       <c r="U7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8">
         <v>0</v>
       </c>
@@ -815,58 +836,61 @@
         <v>10</v>
       </c>
       <c r="E8">
-        <v>359.8877350372785</v>
+        <v>359.9330341172791</v>
       </c>
       <c r="F8">
-        <v>16.10446746015515</v>
+        <v>19.58557812229422</v>
       </c>
       <c r="G8">
-        <v>41.85178177751231</v>
+        <v>46.29634777766208</v>
       </c>
       <c r="H8">
-        <v>8.237346091194061</v>
+        <v>9.48449159892917</v>
       </c>
       <c r="I8">
-        <v>90</v>
+        <v>5.164257800298483E-16</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>8.433873021828074</v>
       </c>
       <c r="K8">
-        <v>90</v>
+        <v>5.983490043197117</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>-7.2290411167948</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.03914768387706175</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>0.6838237906209902</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>0.4315894833451162</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.855914969886546</v>
       </c>
       <c r="Q8">
-        <v>0.1128795769344514</v>
+        <v>0.9422883270960165</v>
       </c>
       <c r="R8">
-        <v>0.872062885097789</v>
+        <v>0.212562421864972</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
-        <v>0.0009996891021728516</v>
+        <v>0.002610699999999966</v>
       </c>
       <c r="U8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9">
         <v>0</v>
       </c>
@@ -880,58 +904,61 @@
         <v>10</v>
       </c>
       <c r="E9">
-        <v>0.1562119689547575</v>
+        <v>0.004145941337805647</v>
       </c>
       <c r="F9">
-        <v>16.21329491664536</v>
+        <v>19.7100274445786</v>
       </c>
       <c r="G9">
-        <v>44.44413286856151</v>
+        <v>42.70213173126695</v>
       </c>
       <c r="H9">
-        <v>7.395365525470908</v>
+        <v>10.53904746795614</v>
       </c>
       <c r="I9">
-        <v>90</v>
+        <v>2.712857375209748E-15</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>44.30432312563173</v>
       </c>
       <c r="K9">
-        <v>90</v>
+        <v>1.351006220938264</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>-13.62512939704232</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.04026817213391225</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>0.7237533459848486</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.4626399607232971</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.9401049527360117</v>
       </c>
       <c r="Q9">
-        <v>0.1119589974152604</v>
+        <v>0.9769439193641449</v>
       </c>
       <c r="R9">
-        <v>1.019667046103143</v>
+        <v>0.2174094386602632</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9">
-        <v>0.0009996891021728516</v>
+        <v>0.005691200000000007</v>
       </c>
       <c r="U9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>25</v>
+      </c>
+      <c r="V9">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10">
         <v>0</v>
       </c>
@@ -945,58 +972,61 @@
         <v>10</v>
       </c>
       <c r="E10">
-        <v>359.9945794227565</v>
+        <v>0.04416310963372807</v>
       </c>
       <c r="F10">
-        <v>16.38598674040481</v>
+        <v>21.65530205225754</v>
       </c>
       <c r="G10">
-        <v>43.71256009536762</v>
+        <v>44.53852926454541</v>
       </c>
       <c r="H10">
-        <v>7.836451464678524</v>
+        <v>11.10846160220272</v>
       </c>
       <c r="I10">
-        <v>90</v>
+        <v>3.347472170743035E-16</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.466836924856498</v>
       </c>
       <c r="K10">
-        <v>90</v>
+        <v>9.957560251136186</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>-0.05864279081729563</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.04547049162235728</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>0.9208926340802402</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.5636409329881555</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>1.080257010313463</v>
       </c>
       <c r="Q10">
-        <v>0.1143380072831888</v>
+        <v>1.037592209019981</v>
       </c>
       <c r="R10">
-        <v>0.8755960473899744</v>
+        <v>0.4376347840336055</v>
       </c>
       <c r="S10">
         <v>0</v>
       </c>
       <c r="T10">
-        <v>0.0009961128234863281</v>
+        <v>0.002711899999999989</v>
       </c>
       <c r="U10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11">
         <v>0</v>
       </c>
@@ -1010,58 +1040,61 @@
         <v>10</v>
       </c>
       <c r="E11">
-        <v>359.8580807458314</v>
+        <v>359.973725386937</v>
       </c>
       <c r="F11">
-        <v>16.59379414173549</v>
+        <v>20.09620052792065</v>
       </c>
       <c r="G11">
-        <v>42.42507826351547</v>
+        <v>45.69752491141688</v>
       </c>
       <c r="H11">
-        <v>8.469388268068421</v>
+        <v>9.875892360053451</v>
       </c>
       <c r="I11">
-        <v>90</v>
+        <v>2.431501252795859E-15</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>39.70942894700357</v>
       </c>
       <c r="K11">
-        <v>90</v>
+        <v>0.7385491432590329</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>11.31239926886146</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.04261294694984491</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>0.7732719491689373</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>0.4835460624768729</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.9545196806692658</v>
       </c>
       <c r="Q11">
-        <v>0.1086856468380219</v>
+        <v>1.061232316172654</v>
       </c>
       <c r="R11">
-        <v>0.7663562781258699</v>
+        <v>0.06305039669785872</v>
       </c>
       <c r="S11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11">
-        <v>0</v>
+        <v>0.006383900000000109</v>
       </c>
       <c r="U11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>29</v>
+      </c>
+      <c r="V11">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12">
         <v>0</v>
       </c>
@@ -1075,58 +1108,61 @@
         <v>10</v>
       </c>
       <c r="E12">
-        <v>359.8387346400971</v>
+        <v>359.9128251260951</v>
       </c>
       <c r="F12">
-        <v>16.65577221064759</v>
+        <v>18.5522674255307</v>
       </c>
       <c r="G12">
-        <v>42.59402492346739</v>
+        <v>45.35657051002045</v>
       </c>
       <c r="H12">
-        <v>8.472778651704976</v>
+        <v>9.087818971266335</v>
       </c>
       <c r="I12">
-        <v>90</v>
+        <v>8.028867690858436E-16</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>13.11213599945461</v>
       </c>
       <c r="K12">
-        <v>90</v>
+        <v>0.5889610328850912</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>9.614162359805826</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.03724845914562058</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>0.6065730335258275</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>0.3912926645253293</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.8074805655381594</v>
       </c>
       <c r="Q12">
-        <v>0.1152328836837739</v>
+        <v>0.9547835629400325</v>
       </c>
       <c r="R12">
-        <v>0.7609567030754902</v>
+        <v>0.3793976196159345</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T12">
-        <v>0.0009992122650146484</v>
+        <v>0.002543799999999985</v>
       </c>
       <c r="U12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V12">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13">
         <v>0</v>
       </c>
@@ -1140,58 +1176,61 @@
         <v>10</v>
       </c>
       <c r="E13">
-        <v>0.1386445320272192</v>
+        <v>359.9115596320898</v>
       </c>
       <c r="F13">
-        <v>16.10568128449222</v>
+        <v>19.99620018889449</v>
       </c>
       <c r="G13">
-        <v>44.05604941054748</v>
+        <v>42.93723390205376</v>
       </c>
       <c r="H13">
-        <v>7.447287662532104</v>
+        <v>10.77931750570661</v>
       </c>
       <c r="I13">
-        <v>90</v>
+        <v>7.309505205892167E-16</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>11.93732790708526</v>
       </c>
       <c r="K13">
-        <v>90</v>
+        <v>5.563511122684778</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>-5.226119519152904</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.04158006471327765</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>0.7574049701864323</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>0.4831841083017722</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.9626386048093949</v>
       </c>
       <c r="Q13">
-        <v>0.1133258630683095</v>
+        <v>0.9916145960811757</v>
       </c>
       <c r="R13">
-        <v>1.020964541735743</v>
+        <v>0.2688252717783203</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T13">
-        <v>0.0009999275207519531</v>
+        <v>0.002844000000000069</v>
       </c>
       <c r="U13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V13">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22">
       <c r="A14">
         <v>0</v>
       </c>
@@ -1205,58 +1244,61 @@
         <v>10</v>
       </c>
       <c r="E14">
-        <v>0.3531585423091242</v>
+        <v>0.007277716630719343</v>
       </c>
       <c r="F14">
-        <v>15.69094872029132</v>
+        <v>20.51008215018369</v>
       </c>
       <c r="G14">
-        <v>45.9558319459694</v>
+        <v>45.24162034564158</v>
       </c>
       <c r="H14">
-        <v>6.583307367909236</v>
+        <v>10.24799003097709</v>
       </c>
       <c r="I14">
-        <v>90</v>
+        <v>2.44908592733326E-15</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>39.99660847582191</v>
       </c>
       <c r="K14">
-        <v>90</v>
+        <v>8.990471763357826</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>9.723311199331242</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.04269622613735804</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>0.8000471637710305</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>0.4980224725024993</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.9745958954953231</v>
       </c>
       <c r="Q14">
-        <v>0.11533366479514</v>
+        <v>1.023269794467608</v>
       </c>
       <c r="R14">
-        <v>1.325446198891599</v>
+        <v>0.1123642913916308</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T14">
-        <v>0.0009996891021728516</v>
+        <v>0.002531499999999909</v>
       </c>
       <c r="U14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15">
         <v>0</v>
       </c>
@@ -1270,58 +1312,61 @@
         <v>10</v>
       </c>
       <c r="E15">
-        <v>0.9893842885291159</v>
+        <v>0.1290035417006043</v>
       </c>
       <c r="F15">
-        <v>14.25811099380548</v>
+        <v>19.86782854016253</v>
       </c>
       <c r="G15">
-        <v>53.02898686655507</v>
+        <v>46.33060965835898</v>
       </c>
       <c r="H15">
-        <v>4.347315040686161</v>
+        <v>9.500273130531548</v>
       </c>
       <c r="I15">
-        <v>90</v>
+        <v>1.722309609299042E-15</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>28.12745046977106</v>
       </c>
       <c r="K15">
-        <v>90</v>
+        <v>8.960140081110262</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-10.36933430394584</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.03855691879437498</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.6943948897941676</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>0.4349098760891577</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.8657808197023867</v>
       </c>
       <c r="Q15">
-        <v>0.1804779980992263</v>
+        <v>0.9177559179572298</v>
       </c>
       <c r="R15">
-        <v>2.339732734140827</v>
+        <v>0.2014621325710261</v>
       </c>
       <c r="S15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>0.002792899999999987</v>
       </c>
       <c r="U15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16">
         <v>0</v>
       </c>
@@ -1335,58 +1380,61 @@
         <v>10</v>
       </c>
       <c r="E16">
-        <v>359.9261190564717</v>
+        <v>0.1260311068278449</v>
       </c>
       <c r="F16">
-        <v>16.21633696969998</v>
+        <v>19.22324318928183</v>
       </c>
       <c r="G16">
-        <v>42.43894508353579</v>
+        <v>43.31042361428369</v>
       </c>
       <c r="H16">
-        <v>8.101897453501557</v>
+        <v>9.936340171953127</v>
       </c>
       <c r="I16">
-        <v>90</v>
+        <v>2.64504092083092E-15</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>43.19679637708604</v>
       </c>
       <c r="K16">
-        <v>90</v>
+        <v>2.954173742709456</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>4.690918336051252</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.04018082458050419</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>0.7002067586340521</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.4493587743862633</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.9292824483620699</v>
       </c>
       <c r="Q16">
-        <v>0.1145967408210215</v>
+        <v>1.050378103870154</v>
       </c>
       <c r="R16">
-        <v>0.8723274979432942</v>
+        <v>0.1543918775880996</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>0.005794799999999878</v>
       </c>
       <c r="U16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>26</v>
+      </c>
+      <c r="V16">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17">
         <v>0</v>
       </c>
@@ -1400,58 +1448,61 @@
         <v>10</v>
       </c>
       <c r="E17">
-        <v>359.8512520544042</v>
+        <v>0.08540846535987344</v>
       </c>
       <c r="F17">
-        <v>16.41057948131092</v>
+        <v>19.95203928799743</v>
       </c>
       <c r="G17">
-        <v>42.04144237570749</v>
+        <v>45.20626838633778</v>
       </c>
       <c r="H17">
-        <v>8.444597695466696</v>
+        <v>9.864871456610663</v>
       </c>
       <c r="I17">
-        <v>90</v>
+        <v>9.214302868548025E-16</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>15.04809856190925</v>
       </c>
       <c r="K17">
-        <v>90</v>
+        <v>10.4792072004193</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>-0.7639185407239946</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.04126297335971717</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>0.7486983032420294</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.4702975365029683</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.9393596854874049</v>
       </c>
       <c r="Q17">
-        <v>0.1172728707035887</v>
+        <v>1.028455128633113</v>
       </c>
       <c r="R17">
-        <v>0.7991198796970118</v>
+        <v>0.06428768784596199</v>
       </c>
       <c r="S17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T17">
-        <v>0</v>
+        <v>0.002315599999999973</v>
       </c>
       <c r="U17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>9</v>
+      </c>
+      <c r="V17">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18">
         <v>0</v>
       </c>
@@ -1465,58 +1516,61 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>0.4467514887012472</v>
+        <v>359.9372820104352</v>
       </c>
       <c r="F18">
-        <v>15.85090689799688</v>
+        <v>20.48925515497048</v>
       </c>
       <c r="G18">
-        <v>47.28053448780918</v>
+        <v>43.70222839416651</v>
       </c>
       <c r="H18">
-        <v>6.360469310647263</v>
+        <v>10.75383034545357</v>
       </c>
       <c r="I18">
-        <v>90</v>
+        <v>1.118097942600247E-15</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>18.25992512091994</v>
       </c>
       <c r="K18">
-        <v>90</v>
+        <v>6.883306625555766</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>-0.6634679921656784</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.04327344628697376</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>0.8107630065666666</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.5090426570316496</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>1.003356335498565</v>
       </c>
       <c r="Q18">
-        <v>0.1263794963195044</v>
+        <v>1.029499066984803</v>
       </c>
       <c r="R18">
-        <v>1.424341665208983</v>
+        <v>0.2773526368146258</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T18">
-        <v>0.0009996891021728516</v>
+        <v>0.002795399999999892</v>
       </c>
       <c r="U18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19">
         <v>0</v>
       </c>
@@ -1530,58 +1584,61 @@
         <v>10</v>
       </c>
       <c r="E19">
-        <v>0.6318075508162779</v>
+        <v>359.9445727742778</v>
       </c>
       <c r="F19">
-        <v>14.89134911901422</v>
+        <v>20.25112341439732</v>
       </c>
       <c r="G19">
-        <v>48.94376300183951</v>
+        <v>44.43982274245713</v>
       </c>
       <c r="H19">
-        <v>5.404028671530789</v>
+        <v>10.32198607439785</v>
       </c>
       <c r="I19">
-        <v>90</v>
+        <v>2.098238849923963E-15</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>34.26684087828163</v>
       </c>
       <c r="K19">
-        <v>90</v>
+        <v>13.78399155779256</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>-0.2361742945585463</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.04383377838643143</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>0.8054193271078971</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>0.5046425458397638</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>1.000899081758734</v>
       </c>
       <c r="Q19">
-        <v>0.1485333976198799</v>
+        <v>1.091013856469755</v>
       </c>
       <c r="R19">
-        <v>1.831259701616178</v>
+        <v>0.1292847076683651</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T19">
-        <v>0.0009989738464355469</v>
+        <v>0.002815000000000012</v>
       </c>
       <c r="U19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V19">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20">
         <v>0</v>
       </c>
@@ -1595,58 +1652,61 @@
         <v>10</v>
       </c>
       <c r="E20">
-        <v>0.4580995963428063</v>
+        <v>359.8417297613192</v>
       </c>
       <c r="F20">
-        <v>15.56294921574361</v>
+        <v>19.4326811086768</v>
       </c>
       <c r="G20">
-        <v>46.7222036327739</v>
+        <v>43.59658864302126</v>
       </c>
       <c r="H20">
-        <v>6.285411462045569</v>
+        <v>10.20738443355604</v>
       </c>
       <c r="I20">
-        <v>90</v>
+        <v>5.749111794683402E-16</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>9.389012078725322</v>
       </c>
       <c r="K20">
-        <v>90</v>
+        <v>5.091725529107427</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>-5.464976185860078</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.04298265940518974</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>0.7471809557059967</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>0.4789741883412243</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.9654228615771163</v>
       </c>
       <c r="Q20">
-        <v>0.1283608141773215</v>
+        <v>1.118991172621789</v>
       </c>
       <c r="R20">
-        <v>1.455981356415022</v>
+        <v>0.173775526260615</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
-        <v>0.0009999275207519531</v>
+        <v>0.00280109999999989</v>
       </c>
       <c r="U20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22">
       <c r="A21">
         <v>0</v>
       </c>
@@ -1660,58 +1720,61 @@
         <v>10</v>
       </c>
       <c r="E21">
-        <v>359.4859555465163</v>
+        <v>0.005729173498997643</v>
       </c>
       <c r="F21">
-        <v>15.86470265514892</v>
+        <v>18.83558463778935</v>
       </c>
       <c r="G21">
-        <v>39.51865163062291</v>
+        <v>44.71880199002565</v>
       </c>
       <c r="H21">
-        <v>9.163885954446911</v>
+        <v>9.311800754308575</v>
       </c>
       <c r="I21">
-        <v>90</v>
+        <v>1.926729831580157E-15</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>31.46588604847734</v>
       </c>
       <c r="K21">
-        <v>90</v>
+        <v>4.395010127948481</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>-13.2030171961742</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.0402821658090743</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>0.6732386832947037</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>0.4315187847995195</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.8955338312666693</v>
       </c>
       <c r="Q21">
-        <v>0.1490035347570206</v>
+        <v>1.093700350114664</v>
       </c>
       <c r="R21">
-        <v>0.8191814460645421</v>
+        <v>0.2775466685645165</v>
       </c>
       <c r="S21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T21">
-        <v>0.00099945068359375</v>
+        <v>0.002584700000000106</v>
       </c>
       <c r="U21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V21">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22">
       <c r="A22">
         <v>0</v>
       </c>
@@ -1725,58 +1788,61 @@
         <v>10</v>
       </c>
       <c r="E22">
-        <v>359.266463107427</v>
+        <v>359.8943368079165</v>
       </c>
       <c r="F22">
-        <v>15.69394973045909</v>
+        <v>19.10951966199212</v>
       </c>
       <c r="G22">
-        <v>38.04495110877794</v>
+        <v>44.37807323332589</v>
       </c>
       <c r="H22">
-        <v>9.774177366001583</v>
+        <v>9.761473817937201</v>
       </c>
       <c r="I22">
-        <v>90</v>
+        <v>4.404209307607399E-16</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.192619636410728</v>
       </c>
       <c r="K22">
-        <v>90</v>
+        <v>9.626557392397109</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.510344518084672</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.03940574393218232</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>0.6707052185534771</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>0.4312225264420034</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.8735011177822637</v>
       </c>
       <c r="Q22">
-        <v>0.1785135487932111</v>
+        <v>0.9904387596337051</v>
       </c>
       <c r="R22">
-        <v>0.7725536263851476</v>
+        <v>0.1758022075374061</v>
       </c>
       <c r="S22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T22">
-        <v>0</v>
+        <v>0.002753000000000005</v>
       </c>
       <c r="U22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V22">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23">
         <v>0</v>
       </c>
@@ -1790,58 +1856,61 @@
         <v>10</v>
       </c>
       <c r="E23">
-        <v>359.7835789009214</v>
+        <v>0.003605024246264189</v>
       </c>
       <c r="F23">
-        <v>16.47603553266317</v>
+        <v>19.65519586449743</v>
       </c>
       <c r="G23">
-        <v>42.1564277980612</v>
+        <v>44.37110868928189</v>
       </c>
       <c r="H23">
-        <v>8.523079273883708</v>
+        <v>10.01425258944731</v>
       </c>
       <c r="I23">
-        <v>90</v>
+        <v>8.805653918931871E-16</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>14.38072418114792</v>
       </c>
       <c r="K23">
-        <v>90</v>
+        <v>9.19014009887556</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.5294831527862061</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.04037591089501492</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>0.7179117050803067</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>0.456257531481401</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.9164003512202371</v>
       </c>
       <c r="Q23">
-        <v>0.1145098745305054</v>
+        <v>0.9972574450085899</v>
       </c>
       <c r="R23">
-        <v>0.7880884669585997</v>
+        <v>0.04892036414989516</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>0.002672699999999972</v>
       </c>
       <c r="U23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V23">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22">
       <c r="A24">
         <v>0</v>
       </c>
@@ -1855,58 +1924,61 @@
         <v>10</v>
       </c>
       <c r="E24">
-        <v>359.4386972208541</v>
+        <v>359.9199910410953</v>
       </c>
       <c r="F24">
-        <v>16.07249972805796</v>
+        <v>20.01615548378143</v>
       </c>
       <c r="G24">
-        <v>39.39801280794585</v>
+        <v>43.58211561243984</v>
       </c>
       <c r="H24">
-        <v>9.432501558156986</v>
+        <v>10.52122346241411</v>
       </c>
       <c r="I24">
-        <v>90</v>
+        <v>1.731552894518294E-15</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>28.27840477309651</v>
       </c>
       <c r="K24">
-        <v>90</v>
+        <v>2.098790073172801</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>-12.47933974591761</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.04137508740920252</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>0.7516268652531448</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.4764474920061761</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.9495672160524951</v>
       </c>
       <c r="Q24">
-        <v>0.1510114654547927</v>
+        <v>0.9862632680112581</v>
       </c>
       <c r="R24">
-        <v>0.7495416743770797</v>
+        <v>0.1871015053338185</v>
       </c>
       <c r="S24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T24">
-        <v>0.0009992122650146484</v>
+        <v>0.002727400000000157</v>
       </c>
       <c r="U24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V24">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22">
       <c r="A25">
         <v>0</v>
       </c>
@@ -1920,58 +1992,61 @@
         <v>10</v>
       </c>
       <c r="E25">
-        <v>359.8095788562524</v>
+        <v>359.9347477192982</v>
       </c>
       <c r="F25">
-        <v>16.08116950076137</v>
+        <v>20.95789686210853</v>
       </c>
       <c r="G25">
-        <v>41.86990439018112</v>
+        <v>43.12756661377027</v>
       </c>
       <c r="H25">
-        <v>8.262355892675521</v>
+        <v>11.37982110612371</v>
       </c>
       <c r="I25">
-        <v>90</v>
+        <v>2.951446464513753E-15</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>48.20077865011633</v>
       </c>
       <c r="K25">
-        <v>90</v>
+        <v>12.14768142772945</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>-8.797387423473255</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.04384244244319506</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>0.851093715377815</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>0.5352716138268991</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>1.035390996510968</v>
       </c>
       <c r="Q25">
-        <v>0.1264999443924494</v>
+        <v>0.9991769058414663</v>
       </c>
       <c r="R25">
-        <v>0.8868379112833886</v>
+        <v>0.4879039198711724</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>0.001002073287963867</v>
+        <v>0.002751200000000065</v>
       </c>
       <c r="U25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V25">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26">
         <v>0</v>
       </c>
@@ -1985,58 +2060,61 @@
         <v>10</v>
       </c>
       <c r="E26">
-        <v>359.4433423577611</v>
+        <v>359.9642016608126</v>
       </c>
       <c r="F26">
-        <v>15.98723705513048</v>
+        <v>21.13064415047395</v>
       </c>
       <c r="G26">
-        <v>39.44227601220852</v>
+        <v>42.98085907721344</v>
       </c>
       <c r="H26">
-        <v>9.33997717784669</v>
+        <v>11.44898474989899</v>
       </c>
       <c r="I26">
-        <v>90</v>
+        <v>2.703749862044919E-15</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>44.15558614822454</v>
       </c>
       <c r="K26">
-        <v>90</v>
+        <v>7.529654998974385</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>-1.990805151604844</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>0.0445907646085989</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>0.8761029378557945</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>0.5479160504176371</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>1.064211348774234</v>
       </c>
       <c r="Q26">
-        <v>0.150123931790951</v>
+        <v>1.022503281578119</v>
       </c>
       <c r="R26">
-        <v>0.7775101278653045</v>
+        <v>0.5158946412140779</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>0.0009996891021728516</v>
+        <v>0.002715000000000023</v>
       </c>
       <c r="U26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22">
       <c r="A27">
         <v>0</v>
       </c>
@@ -2050,58 +2128,61 @@
         <v>10</v>
       </c>
       <c r="E27">
-        <v>359.8703045309358</v>
+        <v>0.1554486410537152</v>
       </c>
       <c r="F27">
-        <v>16.1785371879789</v>
+        <v>20.05851223978366</v>
       </c>
       <c r="G27">
-        <v>41.91373356806524</v>
+        <v>46.75830569964349</v>
       </c>
       <c r="H27">
-        <v>8.305181727812512</v>
+        <v>9.369780678198998</v>
       </c>
       <c r="I27">
-        <v>90</v>
+        <v>1.154662696461804E-15</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>18.85707286812369</v>
       </c>
       <c r="K27">
-        <v>90</v>
+        <v>12.65944896790074</v>
       </c>
       <c r="L27">
-        <v>0</v>
+        <v>-0.772170742378864</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.04156326078750731</v>
       </c>
       <c r="N27">
-        <v>0</v>
+        <v>0.7551818118645675</v>
       </c>
       <c r="O27">
-        <v>0</v>
+        <v>0.4676167226524919</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>0.9362921018413488</v>
       </c>
       <c r="Q27">
-        <v>0.1194135633914459</v>
+        <v>1.053959016757413</v>
       </c>
       <c r="R27">
-        <v>0.8517403304463798</v>
+        <v>0.2452506531867368</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T27">
-        <v>0.0009992122650146484</v>
+        <v>0.002541899999999986</v>
       </c>
       <c r="U27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V27">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22">
       <c r="A28">
         <v>0</v>
       </c>
@@ -2115,58 +2196,61 @@
         <v>10</v>
       </c>
       <c r="E28">
-        <v>0.03035414162680332</v>
+        <v>359.9624973067071</v>
       </c>
       <c r="F28">
-        <v>16.12361576641737</v>
+        <v>19.57887165925379</v>
       </c>
       <c r="G28">
-        <v>42.93908294739072</v>
+        <v>44.7168849568993</v>
       </c>
       <c r="H28">
-        <v>7.834129445396445</v>
+        <v>9.85324297076132</v>
       </c>
       <c r="I28">
-        <v>90</v>
+        <v>1.479218015907878E-15</v>
       </c>
       <c r="J28">
-        <v>0</v>
+        <v>24.15746347335031</v>
       </c>
       <c r="K28">
-        <v>90</v>
+        <v>6.79611010716838</v>
       </c>
       <c r="L28">
-        <v>0</v>
+        <v>-10.31666292337377</v>
       </c>
       <c r="M28">
-        <v>0</v>
+        <v>0.03905571488113749</v>
       </c>
       <c r="N28">
-        <v>0</v>
+        <v>0.6870810152965321</v>
       </c>
       <c r="O28">
-        <v>0</v>
+        <v>0.4358103161293374</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>0.8770809940887356</v>
       </c>
       <c r="Q28">
-        <v>0.1146390671362585</v>
+        <v>0.9366693803095847</v>
       </c>
       <c r="R28">
-        <v>0.9236111198380437</v>
+        <v>0.08823683510592503</v>
       </c>
       <c r="S28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T28">
-        <v>0.00099945068359375</v>
+        <v>0.002514099999999964</v>
       </c>
       <c r="U28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V28">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22">
       <c r="A29">
         <v>0</v>
       </c>
@@ -2180,58 +2264,61 @@
         <v>10</v>
       </c>
       <c r="E29">
-        <v>359.9186075233623</v>
+        <v>359.8591366222869</v>
       </c>
       <c r="F29">
-        <v>16.16194828517761</v>
+        <v>19.83120911355554</v>
       </c>
       <c r="G29">
-        <v>42.31941842557512</v>
+        <v>42.47346070867601</v>
       </c>
       <c r="H29">
-        <v>8.109176566568049</v>
+        <v>10.86237728639733</v>
       </c>
       <c r="I29">
-        <v>90</v>
+        <v>2.314926478351645E-15</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>37.80561840301036</v>
       </c>
       <c r="K29">
-        <v>90</v>
+        <v>6.134364992631317</v>
       </c>
       <c r="L29">
-        <v>0</v>
+        <v>-1.194969768081222</v>
       </c>
       <c r="M29">
-        <v>0</v>
+        <v>0.04126626709820143</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>0.7423246481448686</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.4762303110447844</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>0.9537327287575909</v>
       </c>
       <c r="Q29">
-        <v>0.1163293799589174</v>
+        <v>0.9813447315514463</v>
       </c>
       <c r="R29">
-        <v>0.8799061597799117</v>
+        <v>0.3280395555144026</v>
       </c>
       <c r="S29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T29">
-        <v>0</v>
+        <v>0.002667200000000092</v>
       </c>
       <c r="U29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22">
       <c r="A30">
         <v>0</v>
       </c>
@@ -2245,58 +2332,61 @@
         <v>10</v>
       </c>
       <c r="E30">
-        <v>0.004751623189927653</v>
+        <v>359.9653509171016</v>
       </c>
       <c r="F30">
-        <v>16.23563165627552</v>
+        <v>19.47755765817179</v>
       </c>
       <c r="G30">
-        <v>43.02600487796408</v>
+        <v>44.78960561451382</v>
       </c>
       <c r="H30">
-        <v>7.899449621003276</v>
+        <v>9.792157867382732</v>
       </c>
       <c r="I30">
-        <v>90</v>
+        <v>2.686213728296762E-15</v>
       </c>
       <c r="J30">
-        <v>0</v>
+        <v>43.86919935065373</v>
       </c>
       <c r="K30">
-        <v>90</v>
+        <v>4.472808115965587</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>3.585564977187482</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>0.03864773295421868</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>0.6756419569360516</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>0.4297011435886146</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>0.8650749005081574</v>
       </c>
       <c r="Q30">
-        <v>0.1163532022704133</v>
+        <v>0.9280894184533275</v>
       </c>
       <c r="R30">
-        <v>0.8893727405745985</v>
+        <v>0.1094195253350886</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T30">
-        <v>0.001000881195068359</v>
+        <v>0.00511370000000011</v>
       </c>
       <c r="U30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21">
+        <v>22</v>
+      </c>
+      <c r="V30">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22">
       <c r="A31">
         <v>0</v>
       </c>
@@ -2310,58 +2400,61 @@
         <v>10</v>
       </c>
       <c r="E31">
-        <v>0.284497485987652</v>
+        <v>359.8461032223432</v>
       </c>
       <c r="F31">
-        <v>15.87485194984769</v>
+        <v>19.39541766696213</v>
       </c>
       <c r="G31">
-        <v>45.22373874913778</v>
+        <v>41.40608203052706</v>
       </c>
       <c r="H31">
-        <v>6.91642011321025</v>
+        <v>10.88382896321296</v>
       </c>
       <c r="I31">
-        <v>90</v>
+        <v>2.081070418971312E-15</v>
       </c>
       <c r="J31">
-        <v>0</v>
+        <v>33.98645912307507</v>
       </c>
       <c r="K31">
-        <v>90</v>
+        <v>10.82378368652227</v>
       </c>
       <c r="L31">
-        <v>0</v>
+        <v>4.256025107766995</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>0.04092734234010033</v>
       </c>
       <c r="N31">
-        <v>0</v>
+        <v>0.7175584666657451</v>
       </c>
       <c r="O31">
-        <v>0</v>
+        <v>0.4649289865947304</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>0.9538350863698728</v>
       </c>
       <c r="Q31">
-        <v>0.1174327356975247</v>
+        <v>1.006707003305282</v>
       </c>
       <c r="R31">
-        <v>1.19137514943549</v>
+        <v>0.3996612455407452</v>
       </c>
       <c r="S31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T31">
-        <v>0</v>
+        <v>0.00270630000000005</v>
       </c>
       <c r="U31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V31">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
       <c r="A32">
         <v>0</v>
       </c>
@@ -2375,58 +2468,61 @@
         <v>10</v>
       </c>
       <c r="E32">
-        <v>359.6706535374284</v>
+        <v>0.04943995983336918</v>
       </c>
       <c r="F32">
-        <v>16.36018812999165</v>
+        <v>21.07097817988301</v>
       </c>
       <c r="G32">
-        <v>40.95640940890345</v>
+        <v>44.86962670926992</v>
       </c>
       <c r="H32">
-        <v>8.89207016913584</v>
+        <v>10.62906207181248</v>
       </c>
       <c r="I32">
-        <v>90</v>
+        <v>1.094370218217779E-15</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>17.8724219747232</v>
       </c>
       <c r="K32">
-        <v>90</v>
+        <v>1.667102641724429</v>
       </c>
       <c r="L32">
-        <v>0</v>
+        <v>-12.59326261769395</v>
       </c>
       <c r="M32">
-        <v>0</v>
+        <v>0.04303645209517518</v>
       </c>
       <c r="N32">
-        <v>0</v>
+        <v>0.839054490655307</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.5171152586234592</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>1.005238847573909</v>
       </c>
       <c r="Q32">
-        <v>0.125907131069922</v>
+        <v>0.98832677569159</v>
       </c>
       <c r="R32">
-        <v>0.7637264939703702</v>
+        <v>0.2621330218366291</v>
       </c>
       <c r="S32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T32">
-        <v>0.0009996891021728516</v>
+        <v>0.002703999999999818</v>
       </c>
       <c r="U32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V32">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22">
       <c r="A33">
         <v>0</v>
       </c>
@@ -2440,58 +2536,61 @@
         <v>10</v>
       </c>
       <c r="E33">
-        <v>359.8251578809022</v>
+        <v>0.2385413327893416</v>
       </c>
       <c r="F33">
-        <v>16.23953512133397</v>
+        <v>19.61516744442459</v>
       </c>
       <c r="G33">
-        <v>41.99154987437487</v>
+        <v>47.25288463436692</v>
       </c>
       <c r="H33">
-        <v>8.360713169210616</v>
+        <v>8.962927720834736</v>
       </c>
       <c r="I33">
-        <v>90</v>
+        <v>2.672792681814821E-15</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>43.65001702818679</v>
       </c>
       <c r="K33">
-        <v>90</v>
+        <v>9.718832757636282</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>4.107793038259979</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>0.04028273567877005</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>0.7109090381137498</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.4431674431047952</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>0.8996665781076315</v>
       </c>
       <c r="Q33">
-        <v>0.1119136163228513</v>
+        <v>1.051568543187504</v>
       </c>
       <c r="R33">
-        <v>0.8421155638345874</v>
+        <v>0.4072948984791082</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>0.0009996891021728516</v>
+        <v>0.002589299999999906</v>
       </c>
       <c r="U33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V33">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22">
       <c r="A34">
         <v>0</v>
       </c>
@@ -2505,58 +2604,61 @@
         <v>10</v>
       </c>
       <c r="E34">
-        <v>0.6120242779070982</v>
+        <v>0.138739337281392</v>
       </c>
       <c r="F34">
-        <v>14.98712703533668</v>
+        <v>21.17581438716038</v>
       </c>
       <c r="G34">
-        <v>47.55627444309415</v>
+        <v>46.36664756697238</v>
       </c>
       <c r="H34">
-        <v>5.681279511648033</v>
+        <v>10.14413508342413</v>
       </c>
       <c r="I34">
-        <v>90</v>
+        <v>9.909202470620511E-16</v>
       </c>
       <c r="J34">
-        <v>0</v>
+        <v>16.18295573469785</v>
       </c>
       <c r="K34">
-        <v>90</v>
+        <v>8.997146037847658</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>1.425720109292296</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>0.0428469472370341</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>0.8402104592320863</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>0.5114972949166027</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>0.9914841480262285</v>
       </c>
       <c r="Q34">
-        <v>0.1395156735962607</v>
+        <v>0.9951914358907791</v>
       </c>
       <c r="R34">
-        <v>1.714332466364062</v>
+        <v>0.2028693266140512</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T34">
-        <v>0.0009987354278564453</v>
+        <v>0.002571800000000124</v>
       </c>
       <c r="U34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V34">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22">
       <c r="A35">
         <v>0</v>
       </c>
@@ -2570,58 +2672,61 @@
         <v>10</v>
       </c>
       <c r="E35">
-        <v>359.6837047859141</v>
+        <v>0.002402498884550025</v>
       </c>
       <c r="F35">
-        <v>16.38574137608508</v>
+        <v>20.47021746714703</v>
       </c>
       <c r="G35">
-        <v>41.21817014623376</v>
+        <v>45.89580970500307</v>
       </c>
       <c r="H35">
-        <v>8.848233211035707</v>
+        <v>10.00362186856304</v>
       </c>
       <c r="I35">
-        <v>90</v>
+        <v>4.124166876744484E-16</v>
       </c>
       <c r="J35">
-        <v>0</v>
+        <v>6.735275639663435</v>
       </c>
       <c r="K35">
-        <v>90</v>
+        <v>3.776594407584725</v>
       </c>
       <c r="L35">
-        <v>0</v>
+        <v>-4.568053068793991</v>
       </c>
       <c r="M35">
-        <v>0</v>
+        <v>0.0408154858753079</v>
       </c>
       <c r="N35">
-        <v>0</v>
+        <v>0.759618102115305</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>0.4708558302369881</v>
       </c>
       <c r="P35">
-        <v>0</v>
+        <v>0.9218934113371615</v>
       </c>
       <c r="Q35">
-        <v>0.1236757490210632</v>
+        <v>0.9420409987313491</v>
       </c>
       <c r="R35">
-        <v>0.762749465766273</v>
+        <v>0.0630861234158937</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T35">
-        <v>0</v>
+        <v>0.003106300000000006</v>
       </c>
       <c r="U35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22">
       <c r="A36">
         <v>0</v>
       </c>
@@ -2635,58 +2740,61 @@
         <v>10</v>
       </c>
       <c r="E36">
-        <v>0.07247739148735763</v>
+        <v>359.8582846923871</v>
       </c>
       <c r="F36">
-        <v>16.13980358664965</v>
+        <v>19.3599385676867</v>
       </c>
       <c r="G36">
-        <v>43.44465936180779</v>
+        <v>42.91853988288985</v>
       </c>
       <c r="H36">
-        <v>7.672130978498567</v>
+        <v>10.40460628718323</v>
       </c>
       <c r="I36">
-        <v>90</v>
+        <v>1.568311633683376E-15</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>25.61247267008407</v>
       </c>
       <c r="K36">
-        <v>90</v>
+        <v>6.02858811763896</v>
       </c>
       <c r="L36">
-        <v>0</v>
+        <v>4.142880038493537</v>
       </c>
       <c r="M36">
-        <v>0</v>
+        <v>0.03960194650471735</v>
       </c>
       <c r="N36">
-        <v>0</v>
+        <v>0.6890724227567298</v>
       </c>
       <c r="O36">
-        <v>0</v>
+        <v>0.4446178976556829</v>
       </c>
       <c r="P36">
-        <v>0</v>
+        <v>0.8992278725058721</v>
       </c>
       <c r="Q36">
-        <v>0.1082863207764512</v>
+        <v>0.9563733177214744</v>
       </c>
       <c r="R36">
-        <v>0.9606531536478645</v>
+        <v>0.2419553543195509</v>
       </c>
       <c r="S36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T36">
-        <v>0.001003503799438477</v>
+        <v>0.00329069999999998</v>
       </c>
       <c r="U36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V36">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22">
       <c r="A37">
         <v>0</v>
       </c>
@@ -2700,58 +2808,61 @@
         <v>10</v>
       </c>
       <c r="E37">
-        <v>359.8767007631646</v>
+        <v>0.01823417225124687</v>
       </c>
       <c r="F37">
-        <v>16.166740163025</v>
+        <v>19.34509541465159</v>
       </c>
       <c r="G37">
-        <v>42.43542515184636</v>
+        <v>44.39343142893742</v>
       </c>
       <c r="H37">
-        <v>8.146918036436004</v>
+        <v>9.782626657652127</v>
       </c>
       <c r="I37">
-        <v>90</v>
+        <v>2.313530700559787E-15</v>
       </c>
       <c r="J37">
-        <v>0</v>
+        <v>37.78282362180765</v>
       </c>
       <c r="K37">
-        <v>90</v>
+        <v>13.78812444986656</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>-4.557465659088339</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>0.0401532719110732</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>0.6988894437145462</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>0.4460420298574876</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>0.906633832849683</v>
       </c>
       <c r="Q37">
-        <v>0.1202473224134043</v>
+        <v>1.024054663626497</v>
       </c>
       <c r="R37">
-        <v>0.8776479910515946</v>
+        <v>0.1286414750387138</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T37">
-        <v>0.0009999275207519531</v>
+        <v>0.002886200000000283</v>
       </c>
       <c r="U37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V37">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22">
       <c r="A38">
         <v>0</v>
       </c>
@@ -2765,58 +2876,61 @@
         <v>10</v>
       </c>
       <c r="E38">
-        <v>359.8957477345762</v>
+        <v>0.1804156212831662</v>
       </c>
       <c r="F38">
-        <v>16.21953155279941</v>
+        <v>19.70296672031828</v>
       </c>
       <c r="G38">
-        <v>42.67214542959353</v>
+        <v>46.24865567056474</v>
       </c>
       <c r="H38">
-        <v>8.110295461564302</v>
+        <v>9.335262248010496</v>
       </c>
       <c r="I38">
-        <v>90</v>
+        <v>2.908679868150026E-15</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>47.50234712857881</v>
       </c>
       <c r="K38">
-        <v>90</v>
+        <v>6.883930584218297</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>0.7797402942254694</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>0.04065192933359661</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>0.7242049448552449</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.4536322397846106</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>0.9161177610095897</v>
       </c>
       <c r="Q38">
-        <v>0.105126192372865</v>
+        <v>1.046734344397555</v>
       </c>
       <c r="R38">
-        <v>0.8717246024917473</v>
+        <v>0.2672575083890985</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>0.003039600000000142</v>
       </c>
       <c r="U38">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21">
+        <v>13</v>
+      </c>
+      <c r="V38">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22">
       <c r="A39">
         <v>0</v>
       </c>
@@ -2830,58 +2944,61 @@
         <v>10</v>
       </c>
       <c r="E39">
-        <v>359.6059379833183</v>
+        <v>359.9277639955283</v>
       </c>
       <c r="F39">
-        <v>16.01115400266848</v>
+        <v>21.95061555074584</v>
       </c>
       <c r="G39">
-        <v>40.52433609394753</v>
+        <v>43.53612375501869</v>
       </c>
       <c r="H39">
-        <v>8.823501409075082</v>
+        <v>11.77044044234621</v>
       </c>
       <c r="I39">
-        <v>90</v>
+        <v>1.366386830518613E-15</v>
       </c>
       <c r="J39">
-        <v>0</v>
+        <v>22.31479037825347</v>
       </c>
       <c r="K39">
-        <v>90</v>
+        <v>6.161094099060734</v>
       </c>
       <c r="L39">
-        <v>0</v>
+        <v>-13.06185968034979</v>
       </c>
       <c r="M39">
-        <v>0</v>
+        <v>0.04757144823547114</v>
       </c>
       <c r="N39">
-        <v>0</v>
+        <v>0.9754301116858715</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>0.5998512670762979</v>
       </c>
       <c r="P39">
-        <v>0</v>
+        <v>1.138768420241253</v>
       </c>
       <c r="Q39">
-        <v>0.1432783431700242</v>
+        <v>1.065803305652035</v>
       </c>
       <c r="R39">
-        <v>0.8369355826639239</v>
+        <v>0.6598173137245054</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>0.0009989738464355469</v>
+        <v>0.002789700000000117</v>
       </c>
       <c r="U39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V39">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22">
       <c r="A40">
         <v>0</v>
       </c>
@@ -2895,58 +3012,61 @@
         <v>10</v>
       </c>
       <c r="E40">
-        <v>0.06872432136093062</v>
+        <v>0.04714449289963152</v>
       </c>
       <c r="F40">
-        <v>16.22000430408278</v>
+        <v>19.26417501888464</v>
       </c>
       <c r="G40">
-        <v>43.44905915629597</v>
+        <v>46.18516452764616</v>
       </c>
       <c r="H40">
-        <v>7.727088020839317</v>
+        <v>9.197285111130427</v>
       </c>
       <c r="I40">
-        <v>90</v>
+        <v>1.813090322550901E-15</v>
       </c>
       <c r="J40">
-        <v>0</v>
+        <v>29.61001202654096</v>
       </c>
       <c r="K40">
-        <v>90</v>
+        <v>7.831465448960365</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>-10.63081658978547</v>
       </c>
       <c r="M40">
-        <v>0</v>
+        <v>0.03882909126761866</v>
       </c>
       <c r="N40">
-        <v>0</v>
+        <v>0.6669524364801768</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.4221276055862827</v>
       </c>
       <c r="P40">
-        <v>0</v>
+        <v>0.8562999694915401</v>
       </c>
       <c r="Q40">
-        <v>0.1062485434901584</v>
+        <v>0.9810725270820925</v>
       </c>
       <c r="R40">
-        <v>0.9391822375494361</v>
+        <v>0.3034127070597356</v>
       </c>
       <c r="S40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T40">
-        <v>0.0009992122650146484</v>
+        <v>0.002517300000000056</v>
       </c>
       <c r="U40">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V40">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22">
       <c r="A41">
         <v>0</v>
       </c>
@@ -2960,58 +3080,61 @@
         <v>10</v>
       </c>
       <c r="E41">
-        <v>0.211896374100267</v>
+        <v>0.02042775437829235</v>
       </c>
       <c r="F41">
-        <v>15.98362840158678</v>
+        <v>19.15460449667626</v>
       </c>
       <c r="G41">
-        <v>45.38805298481604</v>
+        <v>45.58976030905059</v>
       </c>
       <c r="H41">
-        <v>7.007454732218104</v>
+        <v>9.321849723506595</v>
       </c>
       <c r="I41">
-        <v>90</v>
+        <v>1.429525081269782E-15</v>
       </c>
       <c r="J41">
-        <v>0</v>
+        <v>23.34591626361287</v>
       </c>
       <c r="K41">
-        <v>90</v>
+        <v>2.229961804185349</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>12.69092129838707</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>0.03966985027030498</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>0.6773940250870457</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>0.4312229285871113</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>0.8772865158864017</v>
       </c>
       <c r="Q41">
-        <v>0.1175154915352022</v>
+        <v>1.028651260442166</v>
       </c>
       <c r="R41">
-        <v>1.145509368292042</v>
+        <v>0.2598381407211659</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T41">
-        <v>0.00099945068359375</v>
+        <v>0.005735900000000349</v>
       </c>
       <c r="U41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21">
+        <v>26</v>
+      </c>
+      <c r="V41">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22">
       <c r="A42">
         <v>0</v>
       </c>
@@ -3025,58 +3148,61 @@
         <v>10</v>
       </c>
       <c r="E42">
-        <v>359.9201987765315</v>
+        <v>0.1730586593851742</v>
       </c>
       <c r="F42">
-        <v>16.33000156208701</v>
+        <v>19.75153626301525</v>
       </c>
       <c r="G42">
-        <v>42.72958974096284</v>
+        <v>48.7225961129305</v>
       </c>
       <c r="H42">
-        <v>8.13110611520756</v>
+        <v>8.69683553090535</v>
       </c>
       <c r="I42">
-        <v>90</v>
+        <v>9.975705282486537E-16</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>16.29156306852231</v>
       </c>
       <c r="K42">
-        <v>90</v>
+        <v>1.698247838209882</v>
       </c>
       <c r="L42">
-        <v>0</v>
+        <v>11.64498178676866</v>
       </c>
       <c r="M42">
-        <v>0</v>
+        <v>0.03949533838921734</v>
       </c>
       <c r="N42">
-        <v>0</v>
+        <v>0.696936129606799</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.4299281071759717</v>
       </c>
       <c r="P42">
-        <v>0</v>
+        <v>0.864652808552276</v>
       </c>
       <c r="Q42">
-        <v>0.1104544431280661</v>
+        <v>0.9954268617640422</v>
       </c>
       <c r="R42">
-        <v>0.8497672367005815</v>
+        <v>0.4828259963586112</v>
       </c>
       <c r="S42">
         <v>0</v>
       </c>
       <c r="T42">
-        <v>0.0009996891021728516</v>
+        <v>0.002616300000000127</v>
       </c>
       <c r="U42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V42">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22">
       <c r="A43">
         <v>0</v>
       </c>
@@ -3090,58 +3216,61 @@
         <v>10</v>
       </c>
       <c r="E43">
-        <v>359.7095588051858</v>
+        <v>0.3438199083374773</v>
       </c>
       <c r="F43">
-        <v>16.43198642675866</v>
+        <v>20.03321575719707</v>
       </c>
       <c r="G43">
-        <v>41.30836165258559</v>
+        <v>49.46103937060564</v>
       </c>
       <c r="H43">
-        <v>8.811209967507267</v>
+        <v>8.584838680361687</v>
       </c>
       <c r="I43">
-        <v>90</v>
+        <v>1.338190254608895E-15</v>
       </c>
       <c r="J43">
-        <v>0</v>
+        <v>21.85430534813131</v>
       </c>
       <c r="K43">
-        <v>90</v>
+        <v>1.899951998559338</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>-12.17255477166444</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>0.03990462446665831</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>0.7211881184054577</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>0.4407654001172309</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>0.8846719757805338</v>
       </c>
       <c r="Q43">
-        <v>0.12264903942164</v>
+        <v>1.012745192826137</v>
       </c>
       <c r="R43">
-        <v>0.7594332299488743</v>
+        <v>0.554039271025512</v>
       </c>
       <c r="S43">
         <v>0</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>0.003061300000000156</v>
       </c>
       <c r="U43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22">
       <c r="A44">
         <v>0</v>
       </c>
@@ -3155,58 +3284,61 @@
         <v>10</v>
       </c>
       <c r="E44">
-        <v>359.9628080331171</v>
+        <v>0.07503418671554651</v>
       </c>
       <c r="F44">
-        <v>16.41446646917412</v>
+        <v>18.47024924432292</v>
       </c>
       <c r="G44">
-        <v>43.08877237295606</v>
+        <v>49.07663873915685</v>
       </c>
       <c r="H44">
-        <v>8.070840349230773</v>
+        <v>8.05114805055589</v>
       </c>
       <c r="I44">
-        <v>90</v>
+        <v>6.231894143140295E-16</v>
       </c>
       <c r="J44">
-        <v>0</v>
+        <v>10.17745548754005</v>
       </c>
       <c r="K44">
-        <v>90</v>
+        <v>5.965720037005</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>-2.128049762416904</v>
       </c>
       <c r="M44">
-        <v>0</v>
+        <v>0.03702760352904486</v>
       </c>
       <c r="N44">
-        <v>0</v>
+        <v>0.5933219159409584</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.3767139725332342</v>
       </c>
       <c r="P44">
-        <v>0</v>
+        <v>0.77857121197228</v>
       </c>
       <c r="Q44">
-        <v>0.1087382819094613</v>
+        <v>0.9954072601325782</v>
       </c>
       <c r="R44">
-        <v>0.8381630559912905</v>
+        <v>0.7353667321585946</v>
       </c>
       <c r="S44">
         <v>0</v>
       </c>
       <c r="T44">
-        <v>0.0009992122650146484</v>
+        <v>0.002641099999999952</v>
       </c>
       <c r="U44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V44">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22">
       <c r="A45">
         <v>0</v>
       </c>
@@ -3220,58 +3352,61 @@
         <v>10</v>
       </c>
       <c r="E45">
-        <v>359.994399228506</v>
+        <v>359.9922237854913</v>
       </c>
       <c r="F45">
-        <v>16.57525291046952</v>
+        <v>20.00381084525683</v>
       </c>
       <c r="G45">
-        <v>43.18133731364912</v>
+        <v>44.95967755406467</v>
       </c>
       <c r="H45">
-        <v>8.108829671499279</v>
+        <v>10.02202863249654</v>
       </c>
       <c r="I45">
-        <v>90</v>
+        <v>2.606531921389383E-15</v>
       </c>
       <c r="J45">
-        <v>0</v>
+        <v>42.56789668995422</v>
       </c>
       <c r="K45">
-        <v>90</v>
+        <v>4.024063697197315</v>
       </c>
       <c r="L45">
-        <v>0</v>
+        <v>11.77794142558201</v>
       </c>
       <c r="M45">
-        <v>0</v>
+        <v>0.04055044858644722</v>
       </c>
       <c r="N45">
-        <v>0</v>
+        <v>0.7347050034713744</v>
       </c>
       <c r="O45">
-        <v>0</v>
+        <v>0.4618244653720687</v>
       </c>
       <c r="P45">
-        <v>0</v>
+        <v>0.918423409412311</v>
       </c>
       <c r="Q45">
-        <v>0.1058600422690033</v>
+        <v>0.9701951524107417</v>
       </c>
       <c r="R45">
-        <v>0.805054932951663</v>
+        <v>0.00877684333777129</v>
       </c>
       <c r="S45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T45">
-        <v>0.00099945068359375</v>
+        <v>0.005309600000000358</v>
       </c>
       <c r="U45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21">
+        <v>25</v>
+      </c>
+      <c r="V45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22">
       <c r="A46">
         <v>0</v>
       </c>
@@ -3285,58 +3420,61 @@
         <v>10</v>
       </c>
       <c r="E46">
-        <v>359.8758808116203</v>
+        <v>0.274292018829604</v>
       </c>
       <c r="F46">
-        <v>16.01546980103705</v>
+        <v>19.11352898708254</v>
       </c>
       <c r="G46">
-        <v>41.56870714658436</v>
+        <v>52.46179088740583</v>
       </c>
       <c r="H46">
-        <v>8.274384674899968</v>
+        <v>7.645573665144211</v>
       </c>
       <c r="I46">
-        <v>90</v>
+        <v>3.031338714456828E-15</v>
       </c>
       <c r="J46">
-        <v>0</v>
+        <v>49.50551810640201</v>
       </c>
       <c r="K46">
-        <v>90</v>
+        <v>7.720004447415921</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>-1.211412359670776</v>
       </c>
       <c r="M46">
-        <v>0</v>
+        <v>0.03846965339469197</v>
       </c>
       <c r="N46">
-        <v>0</v>
+        <v>0.6435362277806779</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.398151423132636</v>
       </c>
       <c r="P46">
-        <v>0</v>
+        <v>0.8047087799354683</v>
       </c>
       <c r="Q46">
-        <v>0.1214440242795072</v>
+        <v>1.040039706955831</v>
       </c>
       <c r="R46">
-        <v>0.8802601329522421</v>
+        <v>0.9175969450162852</v>
       </c>
       <c r="S46">
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>0.002623299999999773</v>
       </c>
       <c r="U46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V46">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22">
       <c r="A47">
         <v>0</v>
       </c>
@@ -3350,58 +3488,61 @@
         <v>10</v>
       </c>
       <c r="E47">
-        <v>0.3843084641228114</v>
+        <v>0.05253234184046632</v>
       </c>
       <c r="F47">
-        <v>15.91466932727103</v>
+        <v>20.29805134696984</v>
       </c>
       <c r="G47">
-        <v>46.4431446607576</v>
+        <v>43.98938081200541</v>
       </c>
       <c r="H47">
-        <v>6.611520664798309</v>
+        <v>10.49758716240105</v>
       </c>
       <c r="I47">
-        <v>90</v>
+        <v>2.465976703622256E-15</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>40.27245578625878</v>
       </c>
       <c r="K47">
-        <v>90</v>
+        <v>6.828412689756222</v>
       </c>
       <c r="L47">
-        <v>0</v>
+        <v>-3.078852941132988</v>
       </c>
       <c r="M47">
-        <v>0</v>
+        <v>0.04066464398695813</v>
       </c>
       <c r="N47">
-        <v>0</v>
+        <v>0.7586136889109887</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>0.4774353410130795</v>
       </c>
       <c r="P47">
-        <v>0</v>
+        <v>0.9465979515040287</v>
       </c>
       <c r="Q47">
-        <v>0.1167755443649666</v>
+        <v>0.9502035950975699</v>
       </c>
       <c r="R47">
-        <v>1.319719789077483</v>
+        <v>0.1876329680077318</v>
       </c>
       <c r="S47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T47">
-        <v>0.0009996891021728516</v>
+        <v>0.002538399999999719</v>
       </c>
       <c r="U47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V47">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22">
       <c r="A48">
         <v>0</v>
       </c>
@@ -3415,58 +3556,61 @@
         <v>10</v>
       </c>
       <c r="E48">
-        <v>0.3199154344439612</v>
+        <v>0.05617013629696319</v>
       </c>
       <c r="F48">
-        <v>15.63874812445185</v>
+        <v>20.01113571454104</v>
       </c>
       <c r="G48">
-        <v>45.25855846936312</v>
+        <v>47.67407268742203</v>
       </c>
       <c r="H48">
-        <v>6.719794183011749</v>
+        <v>9.294166629137433</v>
       </c>
       <c r="I48">
-        <v>90</v>
+        <v>6.188741109373733E-16</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>10.10698123521423</v>
       </c>
       <c r="K48">
-        <v>90</v>
+        <v>0.9839447967592206</v>
       </c>
       <c r="L48">
-        <v>0</v>
+        <v>-12.247886862371</v>
       </c>
       <c r="M48">
-        <v>0</v>
+        <v>0.04017820486944247</v>
       </c>
       <c r="N48">
-        <v>0</v>
+        <v>0.7240412593704242</v>
       </c>
       <c r="O48">
-        <v>0</v>
+        <v>0.4500014725753109</v>
       </c>
       <c r="P48">
-        <v>0</v>
+        <v>0.8817374264818142</v>
       </c>
       <c r="Q48">
-        <v>0.1158131985514942</v>
+        <v>0.9760238961020926</v>
       </c>
       <c r="R48">
-        <v>1.269931930887813</v>
+        <v>0.2582806701871891</v>
       </c>
       <c r="S48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T48">
-        <v>0.0009987354278564453</v>
+        <v>0.002845899999999624</v>
       </c>
       <c r="U48">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V48">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49">
         <v>0</v>
       </c>
@@ -3480,58 +3624,61 @@
         <v>10</v>
       </c>
       <c r="E49">
-        <v>0.01860399707291049</v>
+        <v>359.9823935038652</v>
       </c>
       <c r="F49">
-        <v>16.25506979062912</v>
+        <v>20.09078999929625</v>
       </c>
       <c r="G49">
-        <v>43.40715449433917</v>
+        <v>46.85978286551597</v>
       </c>
       <c r="H49">
-        <v>7.80664280776804</v>
+        <v>9.592087239983574</v>
       </c>
       <c r="I49">
-        <v>90</v>
+        <v>3.543553594889645E-16</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>5.787062191901868</v>
       </c>
       <c r="K49">
-        <v>90</v>
+        <v>2.622091169362747</v>
       </c>
       <c r="L49">
-        <v>0</v>
+        <v>-7.397657948324058</v>
       </c>
       <c r="M49">
-        <v>0</v>
+        <v>0.04107532326423884</v>
       </c>
       <c r="N49">
-        <v>0</v>
+        <v>0.7429139264133827</v>
       </c>
       <c r="O49">
-        <v>0</v>
+        <v>0.4629879024519449</v>
       </c>
       <c r="P49">
-        <v>0</v>
+        <v>0.9051511577837743</v>
       </c>
       <c r="Q49">
-        <v>0.1031274058246141</v>
+        <v>0.9934728227890604</v>
       </c>
       <c r="R49">
-        <v>0.9048889524153125</v>
+        <v>0.1604402189503978</v>
       </c>
       <c r="S49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T49">
-        <v>0</v>
+        <v>0.003069899999999848</v>
       </c>
       <c r="U49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V49">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50">
         <v>0</v>
       </c>
@@ -3545,58 +3692,61 @@
         <v>10</v>
       </c>
       <c r="E50">
-        <v>359.8664347182519</v>
+        <v>0.1980494916459273</v>
       </c>
       <c r="F50">
-        <v>16.41704743256352</v>
+        <v>18.87178096440251</v>
       </c>
       <c r="G50">
-        <v>42.14692026145281</v>
+        <v>47.38006953955571</v>
       </c>
       <c r="H50">
-        <v>8.402278000472784</v>
+        <v>8.555569241344761</v>
       </c>
       <c r="I50">
-        <v>90</v>
+        <v>1.135455804209247E-15</v>
       </c>
       <c r="J50">
-        <v>0</v>
+        <v>18.54340051351615</v>
       </c>
       <c r="K50">
-        <v>90</v>
+        <v>9.992187680439294</v>
       </c>
       <c r="L50">
-        <v>0</v>
+        <v>10.17837792132445</v>
       </c>
       <c r="M50">
-        <v>0</v>
+        <v>0.03857888728354469</v>
       </c>
       <c r="N50">
-        <v>0</v>
+        <v>0.6438835990745623</v>
       </c>
       <c r="O50">
-        <v>0</v>
+        <v>0.4075387816974327</v>
       </c>
       <c r="P50">
-        <v>0</v>
+        <v>0.8433824952786096</v>
       </c>
       <c r="Q50">
-        <v>0.1077437304715462</v>
+        <v>1.040185580955082</v>
       </c>
       <c r="R50">
-        <v>0.80272819440221</v>
+        <v>0.5641400540306389</v>
       </c>
       <c r="S50">
         <v>0</v>
       </c>
       <c r="T50">
-        <v>0.00099945068359375</v>
+        <v>0.002572200000000358</v>
       </c>
       <c r="U50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V50">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51">
         <v>0</v>
       </c>
@@ -3610,58 +3760,61 @@
         <v>10</v>
       </c>
       <c r="E51">
-        <v>0.04631018826814982</v>
+        <v>359.9279752407447</v>
       </c>
       <c r="F51">
-        <v>16.36346374787203</v>
+        <v>20.04840197254243</v>
       </c>
       <c r="G51">
-        <v>43.43546617177688</v>
+        <v>43.9632729814232</v>
       </c>
       <c r="H51">
-        <v>7.854411723203328</v>
+        <v>10.40824356335194</v>
       </c>
       <c r="I51">
-        <v>90</v>
+        <v>1.66901442442443E-15</v>
       </c>
       <c r="J51">
-        <v>0</v>
+        <v>27.25707404921096</v>
       </c>
       <c r="K51">
-        <v>90</v>
+        <v>4.961821683488237</v>
       </c>
       <c r="L51">
-        <v>0</v>
+        <v>5.696877261182449</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>0.04210505887671655</v>
       </c>
       <c r="N51">
-        <v>0</v>
+        <v>0.7654233552449597</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>0.4837719367742014</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>0.9620365665063678</v>
       </c>
       <c r="Q51">
-        <v>0.1068307183670043</v>
+        <v>1.021816577654438</v>
       </c>
       <c r="R51">
-        <v>0.8901326496491109</v>
+        <v>0.1500187538280919</v>
       </c>
       <c r="S51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T51">
-        <v>0</v>
+        <v>0.002748299999999926</v>
       </c>
       <c r="U51">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V51">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52">
         <v>0</v>
       </c>
@@ -3675,58 +3828,61 @@
         <v>10</v>
       </c>
       <c r="E52">
-        <v>359.9190212970998</v>
+        <v>359.9971712815231</v>
       </c>
       <c r="F52">
-        <v>16.32783661707855</v>
+        <v>21.4069185657068</v>
       </c>
       <c r="G52">
-        <v>42.66456615876579</v>
+        <v>44.14840405798644</v>
       </c>
       <c r="H52">
-        <v>8.132917570906544</v>
+        <v>11.13275868827982</v>
       </c>
       <c r="I52">
-        <v>90</v>
+        <v>2.168109408716243E-15</v>
       </c>
       <c r="J52">
-        <v>0</v>
+        <v>35.40791369765985</v>
       </c>
       <c r="K52">
-        <v>90</v>
+        <v>1.180675645789031</v>
       </c>
       <c r="L52">
-        <v>0</v>
+        <v>8.349976852172887</v>
       </c>
       <c r="M52">
-        <v>0</v>
+        <v>0.04502460379514577</v>
       </c>
       <c r="N52">
-        <v>0</v>
+        <v>0.8961953191447998</v>
       </c>
       <c r="O52">
-        <v>0</v>
+        <v>0.5525239854038044</v>
       </c>
       <c r="P52">
-        <v>0</v>
+        <v>1.064465923625777</v>
       </c>
       <c r="Q52">
-        <v>0.1141275212960238</v>
+        <v>1.029367632142163</v>
       </c>
       <c r="R52">
-        <v>0.8514147442727253</v>
+        <v>0.4224299640484192</v>
       </c>
       <c r="S52">
         <v>0</v>
       </c>
       <c r="T52">
-        <v>0.0009999275207519531</v>
+        <v>0.006095999999999879</v>
       </c>
       <c r="U52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21">
+        <v>29</v>
+      </c>
+      <c r="V52">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53">
         <v>0</v>
       </c>
@@ -3740,58 +3896,61 @@
         <v>10</v>
       </c>
       <c r="E53">
-        <v>0.1685887309992144</v>
+        <v>359.8732202111598</v>
       </c>
       <c r="F53">
-        <v>16.30380657894237</v>
+        <v>21.40176909883098</v>
       </c>
       <c r="G53">
-        <v>45.07586917425819</v>
+        <v>42.9873524957676</v>
       </c>
       <c r="H53">
-        <v>7.332058428560774</v>
+        <v>11.68432748121007</v>
       </c>
       <c r="I53">
-        <v>90</v>
+        <v>2.57420544900134E-15</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>42.03996533194064</v>
       </c>
       <c r="K53">
-        <v>90</v>
+        <v>0.5825477601660681</v>
       </c>
       <c r="L53">
-        <v>0</v>
+        <v>7.083793359913854</v>
       </c>
       <c r="M53">
-        <v>0</v>
+        <v>0.04559814435759991</v>
       </c>
       <c r="N53">
-        <v>0</v>
+        <v>0.9028425180775709</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.5627018883820015</v>
       </c>
       <c r="P53">
-        <v>0</v>
+        <v>1.081475998901689</v>
       </c>
       <c r="Q53">
-        <v>0.1046178827314559</v>
+        <v>1.017402892494997</v>
       </c>
       <c r="R53">
-        <v>1.019045423387531</v>
+        <v>0.6199070966876171</v>
       </c>
       <c r="S53">
         <v>0</v>
       </c>
       <c r="T53">
-        <v>0</v>
+        <v>0.006683499999999842</v>
       </c>
       <c r="U53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21">
+        <v>29</v>
+      </c>
+      <c r="V53">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54">
         <v>0</v>
       </c>
@@ -3805,58 +3964,61 @@
         <v>10</v>
       </c>
       <c r="E54">
-        <v>0.2279116673016389</v>
+        <v>359.9979221167942</v>
       </c>
       <c r="F54">
-        <v>16.19697234266829</v>
+        <v>19.46489399839643</v>
       </c>
       <c r="G54">
-        <v>44.98255238687397</v>
+        <v>48.26148396893618</v>
       </c>
       <c r="H54">
-        <v>7.22229429638121</v>
+        <v>8.830546006056707</v>
       </c>
       <c r="I54">
-        <v>90</v>
+        <v>2.639102115420476E-15</v>
       </c>
       <c r="J54">
-        <v>0</v>
+        <v>43.09980832445602</v>
       </c>
       <c r="K54">
-        <v>90</v>
+        <v>9.373004831575235</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>-1.823590918825311</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>0.03864536595872435</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>0.6654368637697899</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>0.4158372308887631</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>0.8288545636088431</v>
       </c>
       <c r="Q54">
-        <v>0.1146063183929013</v>
+        <v>0.9524521940057807</v>
       </c>
       <c r="R54">
-        <v>1.068759504502567</v>
+        <v>0.4190122353109751</v>
       </c>
       <c r="S54">
         <v>0</v>
       </c>
       <c r="T54">
-        <v>0.0009999275207519531</v>
+        <v>0.003027300000000288</v>
       </c>
       <c r="U54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:22">
       <c r="A55">
         <v>0</v>
       </c>
@@ -3870,58 +4032,61 @@
         <v>10</v>
       </c>
       <c r="E55">
-        <v>0.222214842887015</v>
+        <v>359.9252715775881</v>
       </c>
       <c r="F55">
-        <v>15.99130618247364</v>
+        <v>20.86367409959563</v>
       </c>
       <c r="G55">
-        <v>44.66289218044366</v>
+        <v>41.75238759247738</v>
       </c>
       <c r="H55">
-        <v>7.145434393398775</v>
+        <v>11.77309932059798</v>
       </c>
       <c r="I55">
-        <v>90</v>
+        <v>1.463957082758507E-15</v>
       </c>
       <c r="J55">
-        <v>0</v>
+        <v>23.90823352133483</v>
       </c>
       <c r="K55">
-        <v>90</v>
+        <v>6.226305411639186</v>
       </c>
       <c r="L55">
-        <v>0</v>
+        <v>2.852845713476684</v>
       </c>
       <c r="M55">
-        <v>0</v>
+        <v>0.04572182133434217</v>
       </c>
       <c r="N55">
-        <v>0</v>
+        <v>0.8862553308224339</v>
       </c>
       <c r="O55">
-        <v>0</v>
+        <v>0.5612595116525043</v>
       </c>
       <c r="P55">
-        <v>0</v>
+        <v>1.103849805036174</v>
       </c>
       <c r="Q55">
-        <v>0.1100467595403796</v>
+        <v>1.086923818110517</v>
       </c>
       <c r="R55">
-        <v>1.111680625988165</v>
+        <v>0.6151200875735058</v>
       </c>
       <c r="S55">
         <v>0</v>
       </c>
       <c r="T55">
-        <v>0.0009999275207519531</v>
+        <v>0.002661299999999756</v>
       </c>
       <c r="U55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V55">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56" spans="1:22">
       <c r="A56">
         <v>0</v>
       </c>
@@ -3935,58 +4100,61 @@
         <v>10</v>
       </c>
       <c r="E56">
-        <v>0.5322174788679316</v>
+        <v>359.9934185782301</v>
       </c>
       <c r="F56">
-        <v>15.61531292493469</v>
+        <v>22.00178349779528</v>
       </c>
       <c r="G56">
-        <v>48.15867731391069</v>
+        <v>42.78455827876375</v>
       </c>
       <c r="H56">
-        <v>6.008853983557217</v>
+        <v>12.03729129574106</v>
       </c>
       <c r="I56">
-        <v>90</v>
+        <v>5.627174215921047E-16</v>
       </c>
       <c r="J56">
-        <v>0</v>
+        <v>9.18987290023361</v>
       </c>
       <c r="K56">
-        <v>90</v>
+        <v>0.8749262639242809</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>-9.799619898163812</v>
       </c>
       <c r="M56">
-        <v>0</v>
+        <v>0.0469278859124815</v>
       </c>
       <c r="N56">
-        <v>0</v>
+        <v>0.9748759452848875</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.6014410036018397</v>
       </c>
       <c r="P56">
-        <v>0</v>
+        <v>1.15013774242647</v>
       </c>
       <c r="Q56">
-        <v>0.1315508008918781</v>
+        <v>1.044135731983877</v>
       </c>
       <c r="R56">
-        <v>1.575198396264219</v>
+        <v>0.7331695138915735</v>
       </c>
       <c r="S56">
         <v>0</v>
       </c>
       <c r="T56">
-        <v>0.0009989738464355469</v>
+        <v>0.002628200000000191</v>
       </c>
       <c r="U56">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V56">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:22">
       <c r="A57">
         <v>0</v>
       </c>
@@ -4000,58 +4168,61 @@
         <v>10</v>
       </c>
       <c r="E57">
-        <v>0.134339490714893</v>
+        <v>359.9148954663013</v>
       </c>
       <c r="F57">
-        <v>16.33508898883041</v>
+        <v>20.93002483517304</v>
       </c>
       <c r="G57">
-        <v>44.91997246964794</v>
+        <v>41.77612326221254</v>
       </c>
       <c r="H57">
-        <v>7.388282453053668</v>
+        <v>11.7451290266092</v>
       </c>
       <c r="I57">
-        <v>90</v>
+        <v>3.018058348693061E-15</v>
       </c>
       <c r="J57">
-        <v>0</v>
+        <v>49.28863327441595</v>
       </c>
       <c r="K57">
-        <v>90</v>
+        <v>10.16600916111516</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>5.865987394396602</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>0.04426819478158287</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>0.859154876834301</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>0.5417658080446341</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>1.068804611840198</v>
       </c>
       <c r="Q57">
-        <v>0.1113926573259959</v>
+        <v>1.010931809316611</v>
       </c>
       <c r="R57">
-        <v>0.993924198604907</v>
+        <v>0.6156573781194024</v>
       </c>
       <c r="S57">
         <v>0</v>
       </c>
       <c r="T57">
-        <v>0.00099945068359375</v>
+        <v>0.002769800000000266</v>
       </c>
       <c r="U57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V57">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:22">
       <c r="A58">
         <v>0</v>
       </c>
@@ -4065,58 +4236,61 @@
         <v>10</v>
       </c>
       <c r="E58">
-        <v>359.7138070686181</v>
+        <v>0.06632580581123133</v>
       </c>
       <c r="F58">
-        <v>16.00369418716741</v>
+        <v>20.55682935954732</v>
       </c>
       <c r="G58">
-        <v>40.83379427960814</v>
+        <v>45.39352189474852</v>
       </c>
       <c r="H58">
-        <v>8.633879593053257</v>
+        <v>10.16516982678541</v>
       </c>
       <c r="I58">
-        <v>90</v>
+        <v>5.468497361071676E-16</v>
       </c>
       <c r="J58">
-        <v>0</v>
+        <v>8.930733930597878</v>
       </c>
       <c r="K58">
-        <v>90</v>
+        <v>6.035191301506888</v>
       </c>
       <c r="L58">
-        <v>0</v>
+        <v>6.824931750397787</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>0.04042940576608702</v>
       </c>
       <c r="N58">
-        <v>0</v>
+        <v>0.7619469208728773</v>
       </c>
       <c r="O58">
-        <v>0</v>
+        <v>0.4726947466641349</v>
       </c>
       <c r="P58">
-        <v>0</v>
+        <v>0.9282570509801068</v>
       </c>
       <c r="Q58">
-        <v>0.1350455288192333</v>
+        <v>0.9247611388220656</v>
       </c>
       <c r="R58">
-        <v>0.8502589619946852</v>
+        <v>0.1141144021468176</v>
       </c>
       <c r="S58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T58">
-        <v>0.0009996891021728516</v>
+        <v>0.002522499999999983</v>
       </c>
       <c r="U58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V58">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59" spans="1:22">
       <c r="A59">
         <v>0</v>
       </c>
@@ -4130,58 +4304,61 @@
         <v>10</v>
       </c>
       <c r="E59">
-        <v>359.9598233902821</v>
+        <v>0.05213540550497563</v>
       </c>
       <c r="F59">
-        <v>16.57362741761004</v>
+        <v>20.52390212450225</v>
       </c>
       <c r="G59">
-        <v>43.3174154351289</v>
+        <v>45.1779935677485</v>
       </c>
       <c r="H59">
-        <v>8.111335876920654</v>
+        <v>10.22994521996106</v>
       </c>
       <c r="I59">
-        <v>90</v>
+        <v>1.312193812885872E-15</v>
       </c>
       <c r="J59">
-        <v>0</v>
+        <v>21.42975123602123</v>
       </c>
       <c r="K59">
-        <v>90</v>
+        <v>9.843804481127075</v>
       </c>
       <c r="L59">
-        <v>0</v>
+        <v>1.520899462845444</v>
       </c>
       <c r="M59">
-        <v>0</v>
+        <v>0.04220867859349574</v>
       </c>
       <c r="N59">
-        <v>0</v>
+        <v>0.794005148665812</v>
       </c>
       <c r="O59">
-        <v>0</v>
+        <v>0.4937387170539486</v>
       </c>
       <c r="P59">
-        <v>0</v>
+        <v>0.9698572494465604</v>
       </c>
       <c r="Q59">
-        <v>0.1111797471030704</v>
+        <v>1.00729228815156</v>
       </c>
       <c r="R59">
-        <v>0.8098058458535827</v>
+        <v>0.1186285059354084</v>
       </c>
       <c r="S59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T59">
-        <v>0</v>
+        <v>0.002590200000000209</v>
       </c>
       <c r="U59">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V59">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60" spans="1:22">
       <c r="A60">
         <v>0</v>
       </c>
@@ -4195,58 +4372,61 @@
         <v>10</v>
       </c>
       <c r="E60">
-        <v>0.005034929838463083</v>
+        <v>0.01410262987646177</v>
       </c>
       <c r="F60">
-        <v>16.49087642266199</v>
+        <v>19.55540166366356</v>
       </c>
       <c r="G60">
-        <v>44.4528693749011</v>
+        <v>44.88789291322087</v>
       </c>
       <c r="H60">
-        <v>7.744261288876872</v>
+        <v>9.765580608485946</v>
       </c>
       <c r="I60">
-        <v>90</v>
+        <v>2.852299154609781E-15</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>46.58158020084914</v>
       </c>
       <c r="K60">
-        <v>90</v>
+        <v>6.504884339362447</v>
       </c>
       <c r="L60">
-        <v>0</v>
+        <v>12.02215298747071</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>0.04012592375514286</v>
       </c>
       <c r="N60">
-        <v>0</v>
+        <v>0.7066922572041522</v>
       </c>
       <c r="O60">
-        <v>0</v>
+        <v>0.4481091802793308</v>
       </c>
       <c r="P60">
-        <v>0</v>
+        <v>0.9032155466960652</v>
       </c>
       <c r="Q60">
-        <v>0.1046072974991314</v>
+        <v>1.001222880155136</v>
       </c>
       <c r="R60">
-        <v>0.8712986406460401</v>
+        <v>0.1019830438784808</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
-        <v>0</v>
+        <v>0.005023700000000186</v>
       </c>
       <c r="U60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:21">
+        <v>23</v>
+      </c>
+      <c r="V60">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="61" spans="1:22">
       <c r="A61">
         <v>0</v>
       </c>
@@ -4260,58 +4440,61 @@
         <v>10</v>
       </c>
       <c r="E61">
-        <v>0.1108077131462006</v>
+        <v>0.1256267171754885</v>
       </c>
       <c r="F61">
-        <v>16.48268916881442</v>
+        <v>19.83774614419874</v>
       </c>
       <c r="G61">
-        <v>44.23609531525373</v>
+        <v>46.71535937736156</v>
       </c>
       <c r="H61">
-        <v>7.68523242575638</v>
+        <v>9.273573219738219</v>
       </c>
       <c r="I61">
-        <v>90</v>
+        <v>1.135204711115231E-15</v>
       </c>
       <c r="J61">
-        <v>0</v>
+        <v>18.53929985209784</v>
       </c>
       <c r="K61">
-        <v>90</v>
+        <v>4.561434560658943</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>6.852465739781741</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>0.03906483712386751</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>0.6980405514830476</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>0.4341860720657419</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>0.8738667105661806</v>
       </c>
       <c r="Q61">
-        <v>0.1064587122744685</v>
+        <v>0.9483179214022057</v>
       </c>
       <c r="R61">
-        <v>0.9186006748982394</v>
+        <v>0.2694185134434619</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>0.0026613000000002</v>
       </c>
       <c r="U61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V61">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62" spans="1:22">
       <c r="A62">
         <v>0</v>
       </c>
@@ -4325,58 +4508,61 @@
         <v>10</v>
       </c>
       <c r="E62">
-        <v>359.9234646245957</v>
+        <v>0.01243184023235193</v>
       </c>
       <c r="F62">
-        <v>16.73392522618056</v>
+        <v>20.79640800169477</v>
       </c>
       <c r="G62">
-        <v>42.93356432492889</v>
+        <v>43.0214490281836</v>
       </c>
       <c r="H62">
-        <v>8.380756438220413</v>
+        <v>11.05592907478499</v>
       </c>
       <c r="I62">
-        <v>90</v>
+        <v>2.577950485298605E-15</v>
       </c>
       <c r="J62">
-        <v>0</v>
+        <v>42.10112641609768</v>
       </c>
       <c r="K62">
-        <v>90</v>
+        <v>7.42933059971768</v>
       </c>
       <c r="L62">
-        <v>0</v>
+        <v>11.59775622618733</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>0.04488860024662237</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>0.8637987154297063</v>
       </c>
       <c r="O62">
-        <v>0</v>
+        <v>0.5394568492136996</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1.069857042628597</v>
       </c>
       <c r="Q62">
-        <v>0.1072579718443036</v>
+        <v>1.086439716717743</v>
       </c>
       <c r="R62">
-        <v>0.7477785239910266</v>
+        <v>0.3829213365243092</v>
       </c>
       <c r="S62">
         <v>0</v>
       </c>
       <c r="T62">
-        <v>0.0009999275207519531</v>
+        <v>0.004218900000000136</v>
       </c>
       <c r="U62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:21">
+        <v>18</v>
+      </c>
+      <c r="V62">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="1:22">
       <c r="A63">
         <v>0</v>
       </c>
@@ -4390,58 +4576,61 @@
         <v>10</v>
       </c>
       <c r="E63">
-        <v>0.05073542941983201</v>
+        <v>0.1269693768688266</v>
       </c>
       <c r="F63">
-        <v>16.03773891464059</v>
+        <v>20.52254018089951</v>
       </c>
       <c r="G63">
-        <v>43.28964433984572</v>
+        <v>45.65635100273526</v>
       </c>
       <c r="H63">
-        <v>7.667414814787887</v>
+        <v>10.06590887616263</v>
       </c>
       <c r="I63">
-        <v>90</v>
+        <v>3.99171295457676E-16</v>
       </c>
       <c r="J63">
-        <v>0</v>
+        <v>6.518961969044375</v>
       </c>
       <c r="K63">
-        <v>90</v>
+        <v>13.45297046165921</v>
       </c>
       <c r="L63">
-        <v>0</v>
+        <v>0.4605373707890277</v>
       </c>
       <c r="M63">
-        <v>0</v>
+        <v>0.04331864909035595</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>0.8178017080050776</v>
       </c>
       <c r="O63">
-        <v>0</v>
+        <v>0.5076760055134764</v>
       </c>
       <c r="P63">
-        <v>0</v>
+        <v>0.9959545892050818</v>
       </c>
       <c r="Q63">
-        <v>0.1084058706874991</v>
+        <v>1.078036030039917</v>
       </c>
       <c r="R63">
-        <v>0.9687774689417936</v>
+        <v>0.1081733534012044</v>
       </c>
       <c r="S63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T63">
-        <v>0</v>
+        <v>0.002744599999999764</v>
       </c>
       <c r="U63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V63">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64" spans="1:22">
       <c r="A64">
         <v>0</v>
       </c>
@@ -4455,58 +4644,61 @@
         <v>10</v>
       </c>
       <c r="E64">
-        <v>0.04607432551944851</v>
+        <v>359.9607721817096</v>
       </c>
       <c r="F64">
-        <v>15.98075575861383</v>
+        <v>21.29768155308299</v>
       </c>
       <c r="G64">
-        <v>42.97346260052102</v>
+        <v>43.23225006625297</v>
       </c>
       <c r="H64">
-        <v>7.691761737495385</v>
+        <v>11.4042781758398</v>
       </c>
       <c r="I64">
-        <v>90</v>
+        <v>1.832521425060787E-15</v>
       </c>
       <c r="J64">
-        <v>0</v>
+        <v>29.92734601252639</v>
       </c>
       <c r="K64">
-        <v>90</v>
+        <v>5.192667812290763</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>1.755134431633251</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>0.04621966080217144</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>0.914581734814534</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>0.5679612026903804</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>1.102225776398029</v>
       </c>
       <c r="Q64">
-        <v>0.1194463006653419</v>
+        <v>1.081977721360078</v>
       </c>
       <c r="R64">
-        <v>0.9741786021085025</v>
+        <v>0.5132103762998039</v>
       </c>
       <c r="S64">
         <v>0</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>0.002577800000000074</v>
       </c>
       <c r="U64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
       <c r="A65">
         <v>0</v>
       </c>
@@ -4520,58 +4712,61 @@
         <v>10</v>
       </c>
       <c r="E65">
-        <v>359.30827889335</v>
+        <v>359.9571690461847</v>
       </c>
       <c r="F65">
-        <v>16.05268296426007</v>
+        <v>20.90803100525497</v>
       </c>
       <c r="G65">
-        <v>38.97661768572388</v>
+        <v>44.51638467116116</v>
       </c>
       <c r="H65">
-        <v>9.706771288270156</v>
+        <v>10.67952882448865</v>
       </c>
       <c r="I65">
-        <v>90</v>
+        <v>1.350750740188221E-15</v>
       </c>
       <c r="J65">
-        <v>0</v>
+        <v>22.05943364451965</v>
       </c>
       <c r="K65">
-        <v>90</v>
+        <v>10.71341415968932</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>-2.292390111216458</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>0.04213366311347621</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>0.8076541786458493</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>0.499877332141499</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>0.9755889289620315</v>
       </c>
       <c r="Q65">
-        <v>0.1738933102673735</v>
+        <v>0.9431692834668896</v>
       </c>
       <c r="R65">
-        <v>0.7257650987635229</v>
+        <v>0.2683495782348658</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T65">
-        <v>0.0009996891021728516</v>
+        <v>0.002745400000000231</v>
       </c>
       <c r="U65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V65">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
       <c r="A66">
         <v>0</v>
       </c>
@@ -4585,58 +4780,61 @@
         <v>10</v>
       </c>
       <c r="E66">
-        <v>0.02796047901870754</v>
+        <v>0.2256293234519584</v>
       </c>
       <c r="F66">
-        <v>16.40760698376421</v>
+        <v>19.02669675893802</v>
       </c>
       <c r="G66">
-        <v>43.70146013825789</v>
+        <v>47.52295953277537</v>
       </c>
       <c r="H66">
-        <v>7.821357933182382</v>
+        <v>8.576116616190422</v>
       </c>
       <c r="I66">
-        <v>90</v>
+        <v>9.086283616142623E-16</v>
       </c>
       <c r="J66">
-        <v>0</v>
+        <v>14.83902725662427</v>
       </c>
       <c r="K66">
-        <v>90</v>
+        <v>0.7752759029667812</v>
       </c>
       <c r="L66">
-        <v>0</v>
+        <v>7.832979477631071</v>
       </c>
       <c r="M66">
-        <v>0</v>
+        <v>0.03861963901687539</v>
       </c>
       <c r="N66">
-        <v>0</v>
+        <v>0.6517465121988985</v>
       </c>
       <c r="O66">
-        <v>0</v>
+        <v>0.4105660321668559</v>
       </c>
       <c r="P66">
-        <v>0</v>
+        <v>0.8479550347902621</v>
       </c>
       <c r="Q66">
-        <v>0.1095265724705065</v>
+        <v>1.029158463657984</v>
       </c>
       <c r="R66">
-        <v>0.8834802176889484</v>
+        <v>0.5565607685565989</v>
       </c>
       <c r="S66">
         <v>0</v>
       </c>
       <c r="T66">
-        <v>0.0009992122650146484</v>
+        <v>0.002621299999999938</v>
       </c>
       <c r="U66">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
       <c r="A67">
         <v>0</v>
       </c>
@@ -4650,58 +4848,61 @@
         <v>10</v>
       </c>
       <c r="E67">
-        <v>0.2126278736623599</v>
+        <v>359.9979996018903</v>
       </c>
       <c r="F67">
-        <v>16.17889124336376</v>
+        <v>19.93708011986895</v>
       </c>
       <c r="G67">
-        <v>45.03277003669086</v>
+        <v>42.98364672454661</v>
       </c>
       <c r="H67">
-        <v>7.195638275255056</v>
+        <v>10.64127039259745</v>
       </c>
       <c r="I67">
-        <v>90</v>
+        <v>7.312942243768325E-16</v>
       </c>
       <c r="J67">
-        <v>0</v>
+        <v>11.94294101590741</v>
       </c>
       <c r="K67">
-        <v>90</v>
+        <v>3.517922992227875</v>
       </c>
       <c r="L67">
-        <v>0</v>
+        <v>7.876981603129328</v>
       </c>
       <c r="M67">
-        <v>0</v>
+        <v>0.04125303920191593</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>0.7524604087527075</v>
       </c>
       <c r="O67">
-        <v>0</v>
+        <v>0.4794563843896426</v>
       </c>
       <c r="P67">
-        <v>0</v>
+        <v>0.9625273506487774</v>
       </c>
       <c r="Q67">
-        <v>0.09958779290654986</v>
+        <v>0.9999582951389444</v>
       </c>
       <c r="R67">
-        <v>1.073492380238787</v>
+        <v>0.2164698529073654</v>
       </c>
       <c r="S67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>0.002853200000000111</v>
       </c>
       <c r="U67">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V67">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
       <c r="A68">
         <v>0</v>
       </c>
@@ -4715,58 +4916,61 @@
         <v>10</v>
       </c>
       <c r="E68">
-        <v>0.08096991545692642</v>
+        <v>359.7729693028778</v>
       </c>
       <c r="F68">
-        <v>15.85663838036138</v>
+        <v>19.89995863261393</v>
       </c>
       <c r="G68">
-        <v>43.28271589249481</v>
+        <v>41.57463881573361</v>
       </c>
       <c r="H68">
-        <v>7.499888728503024</v>
+        <v>11.29038665724718</v>
       </c>
       <c r="I68">
-        <v>90</v>
+        <v>1.810230914366562E-15</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>29.56331434707404</v>
       </c>
       <c r="K68">
-        <v>90</v>
+        <v>5.087796234673702</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>-10.71207039567036</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>0.04252702781117203</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>0.7664449107603456</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>0.4940178751810787</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>0.9897938298628863</v>
       </c>
       <c r="Q68">
-        <v>0.1120499724729234</v>
+        <v>1.008865122893341</v>
       </c>
       <c r="R68">
-        <v>1.033482534395992</v>
+        <v>0.4733251488145228</v>
       </c>
       <c r="S68">
         <v>0</v>
       </c>
       <c r="T68">
-        <v>0.0009984970092773438</v>
+        <v>0.002515900000000126</v>
       </c>
       <c r="U68">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="69" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V68">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
       <c r="A69">
         <v>0</v>
       </c>
@@ -4780,58 +4984,61 @@
         <v>10</v>
       </c>
       <c r="E69">
-        <v>0.01999818908409388</v>
+        <v>0.2166119071862994</v>
       </c>
       <c r="F69">
-        <v>16.66042191574348</v>
+        <v>19.73269710535649</v>
       </c>
       <c r="G69">
-        <v>43.66824096974983</v>
+        <v>49.37662912136337</v>
       </c>
       <c r="H69">
-        <v>8.028202178556182</v>
+        <v>8.59323941306298</v>
       </c>
       <c r="I69">
-        <v>90</v>
+        <v>1.020848190827475E-15</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>16.67171614767995</v>
       </c>
       <c r="K69">
-        <v>90</v>
+        <v>1.469417161419071</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>10.72006433441464</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>0.03933660809029706</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>0.6949348157417889</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>0.4293803259066137</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>0.8559277397156089</v>
       </c>
       <c r="Q69">
-        <v>0.1013156468502194</v>
+        <v>0.9973760984990042</v>
       </c>
       <c r="R69">
-        <v>0.8095411520762783</v>
+        <v>0.5375340927852045</v>
       </c>
       <c r="S69">
         <v>0</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>0.002468000000000359</v>
       </c>
       <c r="U69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="70" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V69">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
       <c r="A70">
         <v>0</v>
       </c>
@@ -4845,58 +5052,61 @@
         <v>10</v>
       </c>
       <c r="E70">
-        <v>0.4055342857790845</v>
+        <v>359.8307786919828</v>
       </c>
       <c r="F70">
-        <v>15.86458182031519</v>
+        <v>20.13712526791257</v>
       </c>
       <c r="G70">
-        <v>46.48296208327582</v>
+        <v>43.52231166048941</v>
       </c>
       <c r="H70">
-        <v>6.549679360394082</v>
+        <v>10.70513621063978</v>
       </c>
       <c r="I70">
-        <v>90</v>
+        <v>1.122463021869361E-15</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>18.33121227525951</v>
       </c>
       <c r="K70">
-        <v>90</v>
+        <v>4.799704113977027</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>-7.018245940628669</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>0.04364915984080572</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>0.7941856518936188</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>0.5036106158777617</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>0.9940871146847855</v>
       </c>
       <c r="Q70">
-        <v>0.1113437636993182</v>
+        <v>1.061447445330369</v>
       </c>
       <c r="R70">
-        <v>1.345655965068546</v>
+        <v>0.2669586938113894</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>0.002851300000000112</v>
       </c>
       <c r="U70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V70">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
       <c r="A71">
         <v>0</v>
       </c>
@@ -4910,58 +5120,61 @@
         <v>10</v>
       </c>
       <c r="E71">
-        <v>359.7415146939275</v>
+        <v>359.9820316736337</v>
       </c>
       <c r="F71">
-        <v>16.07102046287729</v>
+        <v>19.33987756643118</v>
       </c>
       <c r="G71">
-        <v>40.81298436316477</v>
+        <v>43.10566352129049</v>
       </c>
       <c r="H71">
-        <v>8.659082709509944</v>
+        <v>10.2324425450784</v>
       </c>
       <c r="I71">
-        <v>90</v>
+        <v>2.861792863791973E-15</v>
       </c>
       <c r="J71">
-        <v>0</v>
+        <v>46.73662423785314</v>
       </c>
       <c r="K71">
-        <v>90</v>
+        <v>4.231590228255541</v>
       </c>
       <c r="L71">
-        <v>0</v>
+        <v>-9.98679848046195</v>
       </c>
       <c r="M71">
-        <v>0</v>
+        <v>0.03879430257375079</v>
       </c>
       <c r="N71">
-        <v>0</v>
+        <v>0.6786562579209746</v>
       </c>
       <c r="O71">
-        <v>0</v>
+        <v>0.436847561067162</v>
       </c>
       <c r="P71">
-        <v>0</v>
+        <v>0.8897310420970715</v>
       </c>
       <c r="Q71">
-        <v>0.1209504127042387</v>
+        <v>0.9426676359251271</v>
       </c>
       <c r="R71">
-        <v>0.8319410014884085</v>
+        <v>0.164971332626303</v>
       </c>
       <c r="S71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T71">
-        <v>0.0009996891021728516</v>
+        <v>0.003331699999999937</v>
       </c>
       <c r="U71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:21">
+        <v>13</v>
+      </c>
+      <c r="V71">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:22">
       <c r="A72">
         <v>0</v>
       </c>
@@ -4975,58 +5188,61 @@
         <v>10</v>
       </c>
       <c r="E72">
-        <v>0.1425378693186938</v>
+        <v>0.219613234614235</v>
       </c>
       <c r="F72">
-        <v>16.12215028126512</v>
+        <v>21.19025705824579</v>
       </c>
       <c r="G72">
-        <v>44.68400217983445</v>
+        <v>48.31057388072864</v>
       </c>
       <c r="H72">
-        <v>7.293513981437353</v>
+        <v>9.513355365957873</v>
       </c>
       <c r="I72">
-        <v>90</v>
+        <v>8.17506073978521E-16</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>13.35088736683427</v>
       </c>
       <c r="K72">
-        <v>90</v>
+        <v>12.4826403961206</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>4.645259641349703</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>0.04188352843371444</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>0.8183314964679622</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>0.4913664892767565</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>0.9539165774829832</v>
       </c>
       <c r="Q72">
-        <v>0.1069079618575286</v>
+        <v>0.9737412084690272</v>
       </c>
       <c r="R72">
-        <v>1.043310060702378</v>
+        <v>0.3585169023694541</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T72">
-        <v>0.0009984970092773438</v>
+        <v>0.002577400000000285</v>
       </c>
       <c r="U72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V72">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22">
       <c r="A73">
         <v>0</v>
       </c>
@@ -5040,58 +5256,61 @@
         <v>10</v>
       </c>
       <c r="E73">
-        <v>359.9603620485236</v>
+        <v>0.08475228394760058</v>
       </c>
       <c r="F73">
-        <v>16.40993203343207</v>
+        <v>19.00503498036627</v>
       </c>
       <c r="G73">
-        <v>43.28033125160645</v>
+        <v>48.0929327631549</v>
       </c>
       <c r="H73">
-        <v>8.001639616714947</v>
+        <v>8.582536749297226</v>
       </c>
       <c r="I73">
-        <v>90</v>
+        <v>6.002740446989338E-16</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>9.803219101488983</v>
       </c>
       <c r="K73">
-        <v>90</v>
+        <v>8.662010006312546</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>-5.664304422454918</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>0.03833290562276484</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>0.642649965602434</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>0.4057962303041732</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>0.8235332799516731</v>
       </c>
       <c r="Q73">
-        <v>0.1138428842353886</v>
+        <v>0.9993774543227623</v>
       </c>
       <c r="R73">
-        <v>0.8516636329475246</v>
+        <v>0.5357909543776121</v>
       </c>
       <c r="S73">
         <v>0</v>
       </c>
       <c r="T73">
-        <v>0.001000404357910156</v>
+        <v>0.002466499999999705</v>
       </c>
       <c r="U73">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V73">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
       <c r="A74">
         <v>0</v>
       </c>
@@ -5105,58 +5324,61 @@
         <v>10</v>
       </c>
       <c r="E74">
-        <v>0.02519886311758686</v>
+        <v>359.9460624026527</v>
       </c>
       <c r="F74">
-        <v>16.14344781601536</v>
+        <v>20.05011860978862</v>
       </c>
       <c r="G74">
-        <v>43.56199610105379</v>
+        <v>44.84400170552087</v>
       </c>
       <c r="H74">
-        <v>7.697523278335901</v>
+        <v>10.1820115238805</v>
       </c>
       <c r="I74">
-        <v>90</v>
+        <v>2.077065033263172E-15</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>33.92104621037356</v>
       </c>
       <c r="K74">
-        <v>90</v>
+        <v>10.04458904488705</v>
       </c>
       <c r="L74">
-        <v>0</v>
+        <v>-1.224738180069379</v>
       </c>
       <c r="M74">
-        <v>0</v>
+        <v>0.04207524114876019</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>0.764149458056556</v>
       </c>
       <c r="O74">
-        <v>0</v>
+        <v>0.4820122133615796</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>0.9495242319788707</v>
       </c>
       <c r="Q74">
-        <v>0.1090890174988848</v>
+        <v>1.02790317522434</v>
       </c>
       <c r="R74">
-        <v>0.9392483423344655</v>
+        <v>0.06706378848465361</v>
       </c>
       <c r="S74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T74">
-        <v>0</v>
+        <v>0.002834299999999956</v>
       </c>
       <c r="U74">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V74">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="75" spans="1:22">
       <c r="A75">
         <v>0</v>
       </c>
@@ -5170,58 +5392,61 @@
         <v>10</v>
       </c>
       <c r="E75">
-        <v>0.6761230162252908</v>
+        <v>0.1345540237566408</v>
       </c>
       <c r="F75">
-        <v>14.87565337986963</v>
+        <v>20.7189123140244</v>
       </c>
       <c r="G75">
-        <v>48.22465395017635</v>
+        <v>45.29707221834251</v>
       </c>
       <c r="H75">
-        <v>5.472288699851648</v>
+        <v>10.19816200162731</v>
       </c>
       <c r="I75">
-        <v>90</v>
+        <v>8.633210805034359E-16</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>14.09910320436086</v>
       </c>
       <c r="K75">
-        <v>90</v>
+        <v>8.521741408924388</v>
       </c>
       <c r="L75">
-        <v>0</v>
+        <v>-10.6059455634326</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>0.04206221155345666</v>
       </c>
       <c r="N75">
-        <v>0</v>
+        <v>0.8039212673029328</v>
       </c>
       <c r="O75">
-        <v>0</v>
+        <v>0.4961640404070478</v>
       </c>
       <c r="P75">
-        <v>0</v>
+        <v>0.9783725875899173</v>
       </c>
       <c r="Q75">
-        <v>0.1493746760051771</v>
+        <v>0.997023971271582</v>
       </c>
       <c r="R75">
-        <v>1.808603812858683</v>
+        <v>0.1505151713065833</v>
       </c>
       <c r="S75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T75">
-        <v>0</v>
+        <v>0.002272500000000122</v>
       </c>
       <c r="U75">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:21">
+        <v>9</v>
+      </c>
+      <c r="V75">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76" spans="1:22">
       <c r="A76">
         <v>0</v>
       </c>
@@ -5235,58 +5460,61 @@
         <v>10</v>
       </c>
       <c r="E76">
-        <v>0.09820944240677068</v>
+        <v>359.8267651785288</v>
       </c>
       <c r="F76">
-        <v>15.93484441345164</v>
+        <v>19.73226884399262</v>
       </c>
       <c r="G76">
-        <v>43.80914065948141</v>
+        <v>43.83187244657473</v>
       </c>
       <c r="H76">
-        <v>7.39391440462863</v>
+        <v>10.36922173508306</v>
       </c>
       <c r="I76">
-        <v>90</v>
+        <v>1.873851043606094E-15</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>30.60230990536605</v>
       </c>
       <c r="K76">
-        <v>90</v>
+        <v>2.856074241946771</v>
       </c>
       <c r="L76">
-        <v>0</v>
+        <v>13.58410700464268</v>
       </c>
       <c r="M76">
-        <v>0</v>
+        <v>0.04204853494080525</v>
       </c>
       <c r="N76">
-        <v>0</v>
+        <v>0.7444689539311101</v>
       </c>
       <c r="O76">
-        <v>0</v>
+        <v>0.4750491531213333</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>0.944418575383846</v>
       </c>
       <c r="Q76">
-        <v>0.1202744731133646</v>
+        <v>1.031831718865779</v>
       </c>
       <c r="R76">
-        <v>1.044608208503199</v>
+        <v>0.1871282576414849</v>
       </c>
       <c r="S76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T76">
-        <v>0.00099945068359375</v>
+        <v>0.00573889999999988</v>
       </c>
       <c r="U76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:21">
+        <v>26</v>
+      </c>
+      <c r="V76">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="1:22">
       <c r="A77">
         <v>0</v>
       </c>
@@ -5300,58 +5528,61 @@
         <v>10</v>
       </c>
       <c r="E77">
-        <v>0.4763901571588488</v>
+        <v>0.0766724604028504</v>
       </c>
       <c r="F77">
-        <v>15.42783956308733</v>
+        <v>19.78098767164955</v>
       </c>
       <c r="G77">
-        <v>47.16054040053851</v>
+        <v>46.75805944851744</v>
       </c>
       <c r="H77">
-        <v>6.116997435676748</v>
+        <v>9.311117665537273</v>
       </c>
       <c r="I77">
-        <v>90</v>
+        <v>1.162639318327113E-15</v>
       </c>
       <c r="J77">
-        <v>0</v>
+        <v>18.98734098903599</v>
       </c>
       <c r="K77">
-        <v>90</v>
+        <v>4.495230616874913</v>
       </c>
       <c r="L77">
-        <v>0</v>
+        <v>-7.033782490524947</v>
       </c>
       <c r="M77">
-        <v>0</v>
+        <v>0.03938413068524084</v>
       </c>
       <c r="N77">
-        <v>0</v>
+        <v>0.7002922522567645</v>
       </c>
       <c r="O77">
-        <v>0</v>
+        <v>0.4372507085605349</v>
       </c>
       <c r="P77">
-        <v>0</v>
+        <v>0.8741340896457939</v>
       </c>
       <c r="Q77">
-        <v>0.1313900170670886</v>
+        <v>0.9614843784558113</v>
       </c>
       <c r="R77">
-        <v>1.52487506012671</v>
+        <v>0.2535912122918666</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77">
-        <v>0.0009996891021728516</v>
+        <v>0.002817499999999917</v>
       </c>
       <c r="U77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V77">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22">
       <c r="A78">
         <v>0</v>
       </c>
@@ -5365,58 +5596,61 @@
         <v>10</v>
       </c>
       <c r="E78">
-        <v>0.03106644810598479</v>
+        <v>359.8910012721624</v>
       </c>
       <c r="F78">
-        <v>16.4023352297645</v>
+        <v>19.44096061356757</v>
       </c>
       <c r="G78">
-        <v>43.56292318086896</v>
+        <v>43.34031349951207</v>
       </c>
       <c r="H78">
-        <v>7.863655744245717</v>
+        <v>10.2619280830037</v>
       </c>
       <c r="I78">
-        <v>90</v>
+        <v>2.838725550972493E-15</v>
       </c>
       <c r="J78">
-        <v>0</v>
+        <v>46.35990643096318</v>
       </c>
       <c r="K78">
-        <v>90</v>
+        <v>11.30683770349923</v>
       </c>
       <c r="L78">
-        <v>0</v>
+        <v>-5.416166231198833</v>
       </c>
       <c r="M78">
-        <v>0</v>
+        <v>0.03909828167013511</v>
       </c>
       <c r="N78">
-        <v>0</v>
+        <v>0.683365268780924</v>
       </c>
       <c r="O78">
-        <v>0</v>
+        <v>0.4384225124623793</v>
       </c>
       <c r="P78">
-        <v>0</v>
+        <v>0.8868952110608576</v>
       </c>
       <c r="Q78">
-        <v>0.1039450691874427</v>
+        <v>0.9326281771396964</v>
       </c>
       <c r="R78">
-        <v>0.8775849939629656</v>
+        <v>0.18081048075855</v>
       </c>
       <c r="S78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T78">
-        <v>0.0009987354278564453</v>
+        <v>0.002527800000000191</v>
       </c>
       <c r="U78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V78">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22">
       <c r="A79">
         <v>0</v>
       </c>
@@ -5430,58 +5664,61 @@
         <v>10</v>
       </c>
       <c r="E79">
-        <v>0.0690639956136939</v>
+        <v>0.1789593156557216</v>
       </c>
       <c r="F79">
-        <v>16.13208920275062</v>
+        <v>19.89549855828208</v>
       </c>
       <c r="G79">
-        <v>43.5516045625799</v>
+        <v>45.77315252762182</v>
       </c>
       <c r="H79">
-        <v>7.645078268716242</v>
+        <v>9.562913300986548</v>
       </c>
       <c r="I79">
-        <v>90</v>
+        <v>4.389229183704405E-16</v>
       </c>
       <c r="J79">
-        <v>0</v>
+        <v>7.168155237510696</v>
       </c>
       <c r="K79">
-        <v>90</v>
+        <v>10.94415039997183</v>
       </c>
       <c r="L79">
-        <v>0</v>
+        <v>-6.991903868166093</v>
       </c>
       <c r="M79">
-        <v>0</v>
+        <v>0.03961738693983843</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>0.71648809298622</v>
       </c>
       <c r="O79">
-        <v>0</v>
+        <v>0.4478918005675406</v>
       </c>
       <c r="P79">
-        <v>0</v>
+        <v>0.9025154713361957</v>
       </c>
       <c r="Q79">
-        <v>0.1079473628516492</v>
+        <v>0.9716984957290081</v>
       </c>
       <c r="R79">
-        <v>0.9645322174306489</v>
+        <v>0.1820487703343349</v>
       </c>
       <c r="S79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T79">
-        <v>0.0009999275207519531</v>
+        <v>0.002642400000000045</v>
       </c>
       <c r="U79">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V79">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22">
       <c r="A80">
         <v>0</v>
       </c>
@@ -5495,58 +5732,61 @@
         <v>10</v>
       </c>
       <c r="E80">
-        <v>359.5997607441077</v>
+        <v>359.8929754583446</v>
       </c>
       <c r="F80">
-        <v>16.83213931156469</v>
+        <v>21.09883993090648</v>
       </c>
       <c r="G80">
-        <v>40.84753543063486</v>
+        <v>42.22274122387429</v>
       </c>
       <c r="H80">
-        <v>9.391368240803736</v>
+        <v>11.73315233759706</v>
       </c>
       <c r="I80">
-        <v>90</v>
+        <v>1.685730341092002E-15</v>
       </c>
       <c r="J80">
-        <v>0</v>
+        <v>27.53006568531715</v>
       </c>
       <c r="K80">
-        <v>90</v>
+        <v>9.957508450679349</v>
       </c>
       <c r="L80">
-        <v>0</v>
+        <v>1.002293279301981</v>
       </c>
       <c r="M80">
-        <v>0</v>
+        <v>0.04438100744304384</v>
       </c>
       <c r="N80">
-        <v>0</v>
+        <v>0.8672395482857951</v>
       </c>
       <c r="O80">
-        <v>0</v>
+        <v>0.5448360907965188</v>
       </c>
       <c r="P80">
-        <v>0</v>
+        <v>1.063518219785562</v>
       </c>
       <c r="Q80">
-        <v>0.1303192832514361</v>
+        <v>0.9953867971085463</v>
       </c>
       <c r="R80">
-        <v>0.6200177587092119</v>
+        <v>0.6210456834584762</v>
       </c>
       <c r="S80">
         <v>0</v>
       </c>
       <c r="T80">
-        <v>0</v>
+        <v>0.002641899999999975</v>
       </c>
       <c r="U80">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V80">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22">
       <c r="A81">
         <v>0</v>
       </c>
@@ -5560,58 +5800,61 @@
         <v>10</v>
       </c>
       <c r="E81">
-        <v>359.8299943423402</v>
+        <v>359.8928774948126</v>
       </c>
       <c r="F81">
-        <v>16.45469999676993</v>
+        <v>20.41451089587235</v>
       </c>
       <c r="G81">
-        <v>42.16471219031616</v>
+        <v>44.04372645101932</v>
       </c>
       <c r="H81">
-        <v>8.4596359058941</v>
+        <v>10.62030145724812</v>
       </c>
       <c r="I81">
-        <v>90</v>
+        <v>1.744277125969491E-15</v>
       </c>
       <c r="J81">
-        <v>0</v>
+        <v>28.48620724251147</v>
       </c>
       <c r="K81">
-        <v>90</v>
+        <v>6.236799215402685</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>-4.513552792296194</v>
       </c>
       <c r="M81">
-        <v>0</v>
+        <v>0.04319147802700401</v>
       </c>
       <c r="N81">
-        <v>0</v>
+        <v>0.8010185324389379</v>
       </c>
       <c r="O81">
-        <v>0</v>
+        <v>0.502688573795578</v>
       </c>
       <c r="P81">
-        <v>0</v>
+        <v>0.9890178829027829</v>
       </c>
       <c r="Q81">
-        <v>0.1193568894868685</v>
+        <v>1.026163094749393</v>
       </c>
       <c r="R81">
-        <v>0.7939163001193534</v>
+        <v>0.2403054039894312</v>
       </c>
       <c r="S81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T81">
-        <v>0.0009987354278564453</v>
+        <v>0.00244270000000002</v>
       </c>
       <c r="U81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V81">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22">
       <c r="A82">
         <v>0</v>
       </c>
@@ -5625,58 +5868,61 @@
         <v>10</v>
       </c>
       <c r="E82">
-        <v>0.1359352571022614</v>
+        <v>359.9710063809576</v>
       </c>
       <c r="F82">
-        <v>16.14277871525077</v>
+        <v>20.32023052462954</v>
       </c>
       <c r="G82">
-        <v>44.9133452000623</v>
+        <v>44.58162458170067</v>
       </c>
       <c r="H82">
-        <v>7.273495546880407</v>
+        <v>10.39774927941389</v>
       </c>
       <c r="I82">
-        <v>90</v>
+        <v>1.285503190982746E-15</v>
       </c>
       <c r="J82">
-        <v>0</v>
+        <v>20.99386030123564</v>
       </c>
       <c r="K82">
-        <v>90</v>
+        <v>12.57677467937479</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>6.87052735640657</v>
       </c>
       <c r="M82">
-        <v>0</v>
+        <v>0.04182819185110132</v>
       </c>
       <c r="N82">
-        <v>0</v>
+        <v>0.7752706410330098</v>
       </c>
       <c r="O82">
-        <v>0</v>
+        <v>0.4869682896483358</v>
       </c>
       <c r="P82">
-        <v>0</v>
+        <v>0.9560948766797189</v>
       </c>
       <c r="Q82">
-        <v>0.1146683505785802</v>
+        <v>0.9903627261490365</v>
       </c>
       <c r="R82">
-        <v>1.039211404616342</v>
+        <v>0.1438309871240193</v>
       </c>
       <c r="S82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T82">
-        <v>0.00099945068359375</v>
+        <v>0.002541299999999858</v>
       </c>
       <c r="U82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V82">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22">
       <c r="A83">
         <v>0</v>
       </c>
@@ -5690,58 +5936,61 @@
         <v>10</v>
       </c>
       <c r="E83">
-        <v>359.8471808756179</v>
+        <v>0.1985040179947015</v>
       </c>
       <c r="F83">
-        <v>16.22910102265313</v>
+        <v>19.56423040770512</v>
       </c>
       <c r="G83">
-        <v>42.43683713524214</v>
+        <v>50.09628500785006</v>
       </c>
       <c r="H83">
-        <v>8.188681463093655</v>
+        <v>8.326758759199633</v>
       </c>
       <c r="I83">
-        <v>90</v>
+        <v>1.064533729808976E-15</v>
       </c>
       <c r="J83">
-        <v>0</v>
+        <v>17.3851551410602</v>
       </c>
       <c r="K83">
-        <v>90</v>
+        <v>10.18087880945107</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>-4.760740553325599</v>
       </c>
       <c r="M83">
-        <v>0</v>
+        <v>0.03940747054155267</v>
       </c>
       <c r="N83">
-        <v>0</v>
+        <v>0.6844059077477643</v>
       </c>
       <c r="O83">
-        <v>0</v>
+        <v>0.422302554424713</v>
       </c>
       <c r="P83">
-        <v>0</v>
+        <v>0.8472774972497872</v>
       </c>
       <c r="Q83">
-        <v>0.1163673412896252</v>
+        <v>1.020338790528171</v>
       </c>
       <c r="R83">
-        <v>0.8693550683866356</v>
+        <v>0.6316575725862607</v>
       </c>
       <c r="S83">
         <v>0</v>
       </c>
       <c r="T83">
-        <v>0.00099945068359375</v>
+        <v>0.002580599999999933</v>
       </c>
       <c r="U83">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V83">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84" spans="1:22">
       <c r="A84">
         <v>0</v>
       </c>
@@ -5755,58 +6004,61 @@
         <v>10</v>
       </c>
       <c r="E84">
-        <v>0.5481071427515378</v>
+        <v>0.03756726083809907</v>
       </c>
       <c r="F84">
-        <v>15.28933577115006</v>
+        <v>20.61952987392064</v>
       </c>
       <c r="G84">
-        <v>48.15719180846735</v>
+        <v>43.59512627156119</v>
       </c>
       <c r="H84">
-        <v>5.812333737545228</v>
+        <v>10.78737462694909</v>
       </c>
       <c r="I84">
-        <v>90</v>
+        <v>1.014430617385435E-15</v>
       </c>
       <c r="J84">
-        <v>0</v>
+        <v>16.5669092197313</v>
       </c>
       <c r="K84">
-        <v>90</v>
+        <v>9.750066751511358</v>
       </c>
       <c r="L84">
-        <v>0</v>
+        <v>-6.351567707025311</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>0.04208667713128639</v>
       </c>
       <c r="N84">
-        <v>0</v>
+        <v>0.8013120094407261</v>
       </c>
       <c r="O84">
-        <v>0</v>
+        <v>0.5015006378252748</v>
       </c>
       <c r="P84">
-        <v>0</v>
+        <v>0.9919534490235137</v>
       </c>
       <c r="Q84">
-        <v>0.1397430130762207</v>
+        <v>0.9800005789147238</v>
       </c>
       <c r="R84">
-        <v>1.655428498917425</v>
+        <v>0.2929848046511563</v>
       </c>
       <c r="S84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T84">
-        <v>0.00100255012512207</v>
+        <v>0.002483499999999861</v>
       </c>
       <c r="U84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V84">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85" spans="1:22">
       <c r="A85">
         <v>0</v>
       </c>
@@ -5820,58 +6072,61 @@
         <v>10</v>
       </c>
       <c r="E85">
-        <v>359.9158531003556</v>
+        <v>359.9296853373963</v>
       </c>
       <c r="F85">
-        <v>16.01627354596247</v>
+        <v>20.07869600203304</v>
       </c>
       <c r="G85">
-        <v>42.46696192568073</v>
+        <v>44.28139715108421</v>
       </c>
       <c r="H85">
-        <v>7.957327022818887</v>
+        <v>10.34327320814161</v>
       </c>
       <c r="I85">
-        <v>90</v>
+        <v>4.330255996176537E-16</v>
       </c>
       <c r="J85">
-        <v>0</v>
+        <v>7.071844713416848</v>
       </c>
       <c r="K85">
-        <v>90</v>
+        <v>6.814902530254186</v>
       </c>
       <c r="L85">
-        <v>0</v>
+        <v>2.942914291697799</v>
       </c>
       <c r="M85">
-        <v>0</v>
+        <v>0.04121888105042699</v>
       </c>
       <c r="N85">
-        <v>0</v>
+        <v>0.7501454612496925</v>
       </c>
       <c r="O85">
-        <v>0</v>
+        <v>0.4734670394507013</v>
       </c>
       <c r="P85">
-        <v>0</v>
+        <v>0.9376293420796509</v>
       </c>
       <c r="Q85">
-        <v>0.1051714448502496</v>
+        <v>0.9777992805816287</v>
       </c>
       <c r="R85">
-        <v>0.9270081255674866</v>
+        <v>0.1279200390786481</v>
       </c>
       <c r="S85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T85">
-        <v>0.0009996891021728516</v>
+        <v>0.002450000000000063</v>
       </c>
       <c r="U85">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V85">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="86" spans="1:22">
       <c r="A86">
         <v>0</v>
       </c>
@@ -5885,58 +6140,61 @@
         <v>10</v>
       </c>
       <c r="E86">
-        <v>0.2168234722669586</v>
+        <v>0.2016152590510639</v>
       </c>
       <c r="F86">
-        <v>16.34479237454273</v>
+        <v>20.66030992664864</v>
       </c>
       <c r="G86">
-        <v>45.35247694041404</v>
+        <v>48.02678201160906</v>
       </c>
       <c r="H86">
-        <v>7.250307276346454</v>
+        <v>9.344084654159765</v>
       </c>
       <c r="I86">
-        <v>90</v>
+        <v>2.015574013888666E-15</v>
       </c>
       <c r="J86">
-        <v>0</v>
+        <v>32.91682165489652</v>
       </c>
       <c r="K86">
-        <v>90</v>
+        <v>7.979291079654006</v>
       </c>
       <c r="L86">
-        <v>0</v>
+        <v>-0.2244918831400894</v>
       </c>
       <c r="M86">
-        <v>0</v>
+        <v>0.04370136391770703</v>
       </c>
       <c r="N86">
-        <v>0</v>
+        <v>0.8250755496175198</v>
       </c>
       <c r="O86">
-        <v>0</v>
+        <v>0.5018714849760193</v>
       </c>
       <c r="P86">
-        <v>0</v>
+        <v>0.9854465821527316</v>
       </c>
       <c r="Q86">
-        <v>0.1072842806547985</v>
+        <v>1.111200985290027</v>
       </c>
       <c r="R86">
-        <v>1.055041607945247</v>
+        <v>0.3450780287337716</v>
       </c>
       <c r="S86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>0.002518599999999704</v>
       </c>
       <c r="U86">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V86">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22">
       <c r="A87">
         <v>0</v>
       </c>
@@ -5950,58 +6208,61 @@
         <v>10</v>
       </c>
       <c r="E87">
-        <v>0.3604576438460106</v>
+        <v>0.2767625733582906</v>
       </c>
       <c r="F87">
-        <v>16.01364181490595</v>
+        <v>19.75151926039342</v>
       </c>
       <c r="G87">
-        <v>46.93418658274991</v>
+        <v>49.78018497773164</v>
       </c>
       <c r="H87">
-        <v>6.591323690980152</v>
+        <v>8.363967936997076</v>
       </c>
       <c r="I87">
-        <v>90</v>
+        <v>8.644361035917264E-16</v>
       </c>
       <c r="J87">
-        <v>0</v>
+        <v>14.11731291330007</v>
       </c>
       <c r="K87">
-        <v>90</v>
+        <v>3.952802807675997</v>
       </c>
       <c r="L87">
-        <v>0</v>
+        <v>5.193164002959325</v>
       </c>
       <c r="M87">
-        <v>0</v>
+        <v>0.03890302230013309</v>
       </c>
       <c r="N87">
-        <v>0</v>
+        <v>0.6852913239249755</v>
       </c>
       <c r="O87">
-        <v>0</v>
+        <v>0.4197577151764597</v>
       </c>
       <c r="P87">
-        <v>0</v>
+        <v>0.8507807865172995</v>
       </c>
       <c r="Q87">
-        <v>0.1157151083601941</v>
+        <v>0.9847385249692617</v>
       </c>
       <c r="R87">
-        <v>1.322834668209719</v>
+        <v>0.6184100118341443</v>
       </c>
       <c r="S87">
         <v>0</v>
       </c>
       <c r="T87">
-        <v>0.0009992122650146484</v>
+        <v>0.002852699999999597</v>
       </c>
       <c r="U87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V87">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22">
       <c r="A88">
         <v>0</v>
       </c>
@@ -6015,58 +6276,61 @@
         <v>10</v>
       </c>
       <c r="E88">
-        <v>359.6752312492947</v>
+        <v>359.9808720467539</v>
       </c>
       <c r="F88">
-        <v>16.58887773389063</v>
+        <v>19.30495079719075</v>
       </c>
       <c r="G88">
-        <v>41.27549101959377</v>
+        <v>44.26016121652147</v>
       </c>
       <c r="H88">
-        <v>8.972866005995824</v>
+        <v>9.840381395243528</v>
       </c>
       <c r="I88">
-        <v>90</v>
+        <v>2.114468325928158E-15</v>
       </c>
       <c r="J88">
-        <v>0</v>
+        <v>34.53188833548306</v>
       </c>
       <c r="K88">
-        <v>90</v>
+        <v>2.076994156825069</v>
       </c>
       <c r="L88">
-        <v>0</v>
+        <v>-14.56137789855162</v>
       </c>
       <c r="M88">
-        <v>0</v>
+        <v>0.03850789114014548</v>
       </c>
       <c r="N88">
-        <v>0</v>
+        <v>0.6678028182540062</v>
       </c>
       <c r="O88">
-        <v>0</v>
+        <v>0.4273225738577593</v>
       </c>
       <c r="P88">
-        <v>0</v>
+        <v>0.8668810370276745</v>
       </c>
       <c r="Q88">
-        <v>0.1205823508846822</v>
+        <v>0.9390418295092836</v>
       </c>
       <c r="R88">
-        <v>0.7153485995299693</v>
+        <v>0.121103375988373</v>
       </c>
       <c r="S88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>0.002665599999999824</v>
       </c>
       <c r="U88">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V88">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22">
       <c r="A89">
         <v>0</v>
       </c>
@@ -6080,58 +6344,61 @@
         <v>10</v>
       </c>
       <c r="E89">
-        <v>359.8325436961296</v>
+        <v>0.128055601799645</v>
       </c>
       <c r="F89">
-        <v>16.10385700040181</v>
+        <v>20.02883636657694</v>
       </c>
       <c r="G89">
-        <v>41.71941840485648</v>
+        <v>44.76984727261492</v>
       </c>
       <c r="H89">
-        <v>8.314004656312818</v>
+        <v>9.909444087648236</v>
       </c>
       <c r="I89">
-        <v>90</v>
+        <v>2.09045966950489E-15</v>
       </c>
       <c r="J89">
-        <v>0</v>
+        <v>34.13979722088605</v>
       </c>
       <c r="K89">
-        <v>90</v>
+        <v>10.28081984310822</v>
       </c>
       <c r="L89">
-        <v>0</v>
+        <v>-0.2309605310297828</v>
       </c>
       <c r="M89">
-        <v>0</v>
+        <v>0.03963285187528775</v>
       </c>
       <c r="N89">
-        <v>0</v>
+        <v>0.723587494775657</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>0.4524612466989837</v>
       </c>
       <c r="P89">
-        <v>0</v>
+        <v>0.9148778709048573</v>
       </c>
       <c r="Q89">
-        <v>0.1237805778229818</v>
+        <v>0.9470113780221094</v>
       </c>
       <c r="R89">
-        <v>0.8700560350678421</v>
+        <v>0.06280972727055704</v>
       </c>
       <c r="S89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T89">
-        <v>0.0009999275207519531</v>
+        <v>0.002600900000000017</v>
       </c>
       <c r="U89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V89">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22">
       <c r="A90">
         <v>0</v>
       </c>
@@ -6145,58 +6412,61 @@
         <v>10</v>
       </c>
       <c r="E90">
-        <v>359.2023757390615</v>
+        <v>0.08373290892911435</v>
       </c>
       <c r="F90">
-        <v>15.64178536455149</v>
+        <v>20.66571180382856</v>
       </c>
       <c r="G90">
-        <v>38.26106498251601</v>
+        <v>46.93794231405618</v>
       </c>
       <c r="H90">
-        <v>9.730702121518297</v>
+        <v>9.691468015349237</v>
       </c>
       <c r="I90">
-        <v>90</v>
+        <v>1.683047062543944E-15</v>
       </c>
       <c r="J90">
-        <v>0</v>
+        <v>27.48624442109753</v>
       </c>
       <c r="K90">
-        <v>90</v>
+        <v>5.459628593203484</v>
       </c>
       <c r="L90">
-        <v>0</v>
+        <v>5.259668458639045</v>
       </c>
       <c r="M90">
-        <v>0</v>
+        <v>0.04220307220180497</v>
       </c>
       <c r="N90">
-        <v>0</v>
+        <v>0.7945375531881075</v>
       </c>
       <c r="O90">
-        <v>0</v>
+        <v>0.485880399848773</v>
       </c>
       <c r="P90">
-        <v>0</v>
+        <v>0.9535149802882213</v>
       </c>
       <c r="Q90">
-        <v>0.2048577792300003</v>
+        <v>1.009506407611828</v>
       </c>
       <c r="R90">
-        <v>0.7983884632461944</v>
+        <v>0.2019907648987527</v>
       </c>
       <c r="S90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>0.002567699999999729</v>
       </c>
       <c r="U90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V90">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22">
       <c r="A91">
         <v>0</v>
       </c>
@@ -6210,58 +6480,61 @@
         <v>10</v>
       </c>
       <c r="E91">
-        <v>0.3864371933821867</v>
+        <v>0.1897428674400303</v>
       </c>
       <c r="F91">
-        <v>15.83209915146226</v>
+        <v>20.25956142002066</v>
       </c>
       <c r="G91">
-        <v>46.79916040809197</v>
+        <v>46.80310765939213</v>
       </c>
       <c r="H91">
-        <v>6.498001029652253</v>
+        <v>9.447483354641488</v>
       </c>
       <c r="I91">
-        <v>90</v>
+        <v>7.278957026706436E-16</v>
       </c>
       <c r="J91">
-        <v>0</v>
+        <v>11.88743894447661</v>
       </c>
       <c r="K91">
-        <v>90</v>
+        <v>7.06157353442716</v>
       </c>
       <c r="L91">
-        <v>0</v>
+        <v>13.06914550571644</v>
       </c>
       <c r="M91">
-        <v>0</v>
+        <v>0.03961429327816243</v>
       </c>
       <c r="N91">
-        <v>0</v>
+        <v>0.7308786656491039</v>
       </c>
       <c r="O91">
-        <v>0</v>
+        <v>0.4506184992081324</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>0.8987426572533768</v>
       </c>
       <c r="Q91">
-        <v>0.1194789359302973</v>
+        <v>0.9429940563431201</v>
       </c>
       <c r="R91">
-        <v>1.364413121846263</v>
+        <v>0.2522726880194944</v>
       </c>
       <c r="S91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T91">
-        <v>0</v>
+        <v>0.002612300000000012</v>
       </c>
       <c r="U91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V91">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22">
       <c r="A92">
         <v>0</v>
       </c>
@@ -6275,58 +6548,61 @@
         <v>10</v>
       </c>
       <c r="E92">
-        <v>359.9467411162987</v>
+        <v>359.7808972982491</v>
       </c>
       <c r="F92">
-        <v>16.74469398356798</v>
+        <v>21.80727204205958</v>
       </c>
       <c r="G92">
-        <v>43.20351953280618</v>
+        <v>40.85852371776932</v>
       </c>
       <c r="H92">
-        <v>8.279710020234019</v>
+        <v>12.89915067364394</v>
       </c>
       <c r="I92">
-        <v>90</v>
+        <v>8.600181236435526E-16</v>
       </c>
       <c r="J92">
-        <v>0</v>
+        <v>14.04516182530883</v>
       </c>
       <c r="K92">
-        <v>90</v>
+        <v>6.843298189361176</v>
       </c>
       <c r="L92">
-        <v>0</v>
+        <v>4.07559140513086</v>
       </c>
       <c r="M92">
-        <v>0</v>
+        <v>0.04789543261823084</v>
       </c>
       <c r="N92">
-        <v>0</v>
+        <v>0.9717281936675128</v>
       </c>
       <c r="O92">
-        <v>0</v>
+        <v>0.6114218356666705</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1.178078008708354</v>
       </c>
       <c r="Q92">
-        <v>0.1092028709862045</v>
+        <v>1.035271194064438</v>
       </c>
       <c r="R92">
-        <v>0.7595747289160123</v>
+        <v>1.033706254409443</v>
       </c>
       <c r="S92">
         <v>0</v>
       </c>
       <c r="T92">
-        <v>0.0009999275207519531</v>
+        <v>0.002896300000000185</v>
       </c>
       <c r="U92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:21">
+        <v>11</v>
+      </c>
+      <c r="V92">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="93" spans="1:22">
       <c r="A93">
         <v>0</v>
       </c>
@@ -6340,58 +6616,61 @@
         <v>10</v>
       </c>
       <c r="E93">
-        <v>359.801074342609</v>
+        <v>359.9920800668972</v>
       </c>
       <c r="F93">
-        <v>15.85301370035276</v>
+        <v>20.04450381794616</v>
       </c>
       <c r="G93">
-        <v>41.56882070470859</v>
+        <v>44.43815974965619</v>
       </c>
       <c r="H93">
-        <v>8.207194756207926</v>
+        <v>10.20362492977026</v>
       </c>
       <c r="I93">
-        <v>90</v>
+        <v>2.747165815429369E-15</v>
       </c>
       <c r="J93">
-        <v>0</v>
+        <v>44.86462247469316</v>
       </c>
       <c r="K93">
-        <v>90</v>
+        <v>5.7002276196576</v>
       </c>
       <c r="L93">
-        <v>0</v>
+        <v>-7.281457051870666</v>
       </c>
       <c r="M93">
-        <v>0</v>
+        <v>0.03981360617845413</v>
       </c>
       <c r="N93">
-        <v>0</v>
+        <v>0.7250441152488947</v>
       </c>
       <c r="O93">
-        <v>0</v>
+        <v>0.4566397578627951</v>
       </c>
       <c r="P93">
-        <v>0</v>
+        <v>0.9096472418450999</v>
       </c>
       <c r="Q93">
-        <v>0.1268215978354216</v>
+        <v>0.928366879143227</v>
       </c>
       <c r="R93">
-        <v>0.9292943993153207</v>
+        <v>0.0706408734723631</v>
       </c>
       <c r="S93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T93">
-        <v>0.0009992122650146484</v>
+        <v>0.002721999999999891</v>
       </c>
       <c r="U93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V93">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22">
       <c r="A94">
         <v>0</v>
       </c>
@@ -6405,58 +6684,61 @@
         <v>10</v>
       </c>
       <c r="E94">
-        <v>359.929259649822</v>
+        <v>359.8826942320044</v>
       </c>
       <c r="F94">
-        <v>16.14037385741311</v>
+        <v>19.41640041720484</v>
       </c>
       <c r="G94">
-        <v>42.47971369211229</v>
+        <v>43.5187598797847</v>
       </c>
       <c r="H94">
-        <v>8.044050099496845</v>
+        <v>10.17930701681349</v>
       </c>
       <c r="I94">
-        <v>90</v>
+        <v>1.976943972327754E-15</v>
       </c>
       <c r="J94">
-        <v>0</v>
+        <v>32.28594519994139</v>
       </c>
       <c r="K94">
-        <v>90</v>
+        <v>7.104092532626037</v>
       </c>
       <c r="L94">
-        <v>0</v>
+        <v>-3.83349370737576</v>
       </c>
       <c r="M94">
-        <v>0</v>
+        <v>0.03954490389875718</v>
       </c>
       <c r="N94">
-        <v>0</v>
+        <v>0.6886834615849761</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>0.4413007012781515</v>
       </c>
       <c r="P94">
-        <v>0</v>
+        <v>0.8933786236421434</v>
       </c>
       <c r="Q94">
-        <v>0.1088064245615689</v>
+        <v>0.9565772518583301</v>
       </c>
       <c r="R94">
-        <v>0.8913152322497152</v>
+        <v>0.1598174977739225</v>
       </c>
       <c r="S94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T94">
-        <v>0.0009999275207519531</v>
+        <v>0.002492000000000161</v>
       </c>
       <c r="U94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V94">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95" spans="1:22">
       <c r="A95">
         <v>0</v>
       </c>
@@ -6470,58 +6752,61 @@
         <v>10</v>
       </c>
       <c r="E95">
-        <v>0.2536873539400722</v>
+        <v>0.1419334557226235</v>
       </c>
       <c r="F95">
-        <v>16.04718867594624</v>
+        <v>20.27869395966087</v>
       </c>
       <c r="G95">
-        <v>45.25873556979604</v>
+        <v>46.67124023979251</v>
       </c>
       <c r="H95">
-        <v>7.036031328646775</v>
+        <v>9.588655955830749</v>
       </c>
       <c r="I95">
-        <v>90</v>
+        <v>2.288397075857311E-15</v>
       </c>
       <c r="J95">
-        <v>0</v>
+        <v>37.37236038097813</v>
       </c>
       <c r="K95">
-        <v>90</v>
+        <v>11.22993817142309</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>-3.932626965631608</v>
       </c>
       <c r="M95">
-        <v>0</v>
+        <v>0.0411326401385586</v>
       </c>
       <c r="N95">
-        <v>0</v>
+        <v>0.7601643111980676</v>
       </c>
       <c r="O95">
-        <v>0</v>
+        <v>0.4705185966583104</v>
       </c>
       <c r="P95">
-        <v>0</v>
+        <v>0.9295517554620577</v>
       </c>
       <c r="Q95">
-        <v>0.110830700700182</v>
+        <v>1.00530272190815</v>
       </c>
       <c r="R95">
-        <v>1.140283339239374</v>
+        <v>0.2033248776061904</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95">
-        <v>0.0009999275207519531</v>
+        <v>0.002522799999999936</v>
       </c>
       <c r="U95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V95">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96" spans="1:22">
       <c r="A96">
         <v>0</v>
       </c>
@@ -6535,58 +6820,61 @@
         <v>10</v>
       </c>
       <c r="E96">
-        <v>0.1822630324047563</v>
+        <v>0.09962217453740403</v>
       </c>
       <c r="F96">
-        <v>16.38563107402504</v>
+        <v>19.50359338576397</v>
       </c>
       <c r="G96">
-        <v>45.33343856209963</v>
+        <v>47.71132327164</v>
       </c>
       <c r="H96">
-        <v>7.295902818784915</v>
+        <v>8.896217267986398</v>
       </c>
       <c r="I96">
-        <v>90</v>
+        <v>9.366194817950363E-16</v>
       </c>
       <c r="J96">
-        <v>0</v>
+        <v>15.29615694006055</v>
       </c>
       <c r="K96">
-        <v>90</v>
+        <v>7.817263182556947</v>
       </c>
       <c r="L96">
-        <v>0</v>
+        <v>11.44944147403192</v>
       </c>
       <c r="M96">
-        <v>0</v>
+        <v>0.03954574363260026</v>
       </c>
       <c r="N96">
-        <v>0</v>
+        <v>0.6875430448063539</v>
       </c>
       <c r="O96">
-        <v>0</v>
+        <v>0.429514938051731</v>
       </c>
       <c r="P96">
-        <v>0</v>
+        <v>0.8643857350652246</v>
       </c>
       <c r="Q96">
-        <v>0.1165925902534487</v>
+        <v>1.007671655700597</v>
       </c>
       <c r="R96">
-        <v>1.031123427955366</v>
+        <v>0.410001526281757</v>
       </c>
       <c r="S96">
         <v>0</v>
       </c>
       <c r="T96">
-        <v>0.00099945068359375</v>
+        <v>0.002517099999999939</v>
       </c>
       <c r="U96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V96">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97" spans="1:22">
       <c r="A97">
         <v>0</v>
       </c>
@@ -6600,58 +6888,61 @@
         <v>10</v>
       </c>
       <c r="E97">
-        <v>0.5437045547196966</v>
+        <v>0.0580664596339748</v>
       </c>
       <c r="F97">
-        <v>15.55806683174385</v>
+        <v>18.94940956936419</v>
       </c>
       <c r="G97">
-        <v>48.4392228549978</v>
+        <v>47.16684839829094</v>
       </c>
       <c r="H97">
-        <v>5.917547245246437</v>
+        <v>8.749226059801353</v>
       </c>
       <c r="I97">
-        <v>90</v>
+        <v>8.977218255568979E-16</v>
       </c>
       <c r="J97">
-        <v>0</v>
+        <v>14.6609100057572</v>
       </c>
       <c r="K97">
-        <v>90</v>
+        <v>3.694740321070748</v>
       </c>
       <c r="L97">
-        <v>0</v>
+        <v>-12.64356740762516</v>
       </c>
       <c r="M97">
-        <v>0</v>
+        <v>0.03959387621952351</v>
       </c>
       <c r="N97">
-        <v>0</v>
+        <v>0.6620642738995774</v>
       </c>
       <c r="O97">
-        <v>0</v>
+        <v>0.4194363554155847</v>
       </c>
       <c r="P97">
-        <v>0</v>
+        <v>0.8579412423213973</v>
       </c>
       <c r="Q97">
-        <v>0.1295200138249869</v>
+        <v>1.064492678930071</v>
       </c>
       <c r="R97">
-        <v>1.612680996097942</v>
+        <v>0.4689305124684134</v>
       </c>
       <c r="S97">
         <v>0</v>
       </c>
       <c r="T97">
-        <v>0.001000165939331055</v>
+        <v>0.002714600000000011</v>
       </c>
       <c r="U97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V97">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98" spans="1:22">
       <c r="A98">
         <v>0</v>
       </c>
@@ -6665,58 +6956,61 @@
         <v>10</v>
       </c>
       <c r="E98">
-        <v>359.8690275888081</v>
+        <v>359.994677451752</v>
       </c>
       <c r="F98">
-        <v>16.84467901833434</v>
+        <v>20.74989935248531</v>
       </c>
       <c r="G98">
-        <v>43.21044512077777</v>
+        <v>45.1974426789516</v>
       </c>
       <c r="H98">
-        <v>8.410467659471395</v>
+        <v>10.37375795284584</v>
       </c>
       <c r="I98">
-        <v>90</v>
+        <v>2.612323821189739E-15</v>
       </c>
       <c r="J98">
-        <v>0</v>
+        <v>42.66248559190357</v>
       </c>
       <c r="K98">
-        <v>90</v>
+        <v>0.8843634108602553</v>
       </c>
       <c r="L98">
-        <v>0</v>
+        <v>-9.430160690627311</v>
       </c>
       <c r="M98">
-        <v>0</v>
+        <v>0.04314077586331692</v>
       </c>
       <c r="N98">
-        <v>0</v>
+        <v>0.8193888585438891</v>
       </c>
       <c r="O98">
-        <v>0</v>
+        <v>0.5071412406326343</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>0.9893824884996667</v>
       </c>
       <c r="Q98">
-        <v>0.1036416090928903</v>
+        <v>1.016671796723618</v>
       </c>
       <c r="R98">
-        <v>0.7378084750494778</v>
+        <v>0.1621978049543699</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98">
-        <v>0</v>
+        <v>0.006565399999999944</v>
       </c>
       <c r="U98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:21">
+        <v>29</v>
+      </c>
+      <c r="V98">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="99" spans="1:22">
       <c r="A99">
         <v>0</v>
       </c>
@@ -6730,58 +7024,61 @@
         <v>10</v>
       </c>
       <c r="E99">
-        <v>0.1790540411408451</v>
+        <v>0.1151296265406922</v>
       </c>
       <c r="F99">
-        <v>16.1731543305495</v>
+        <v>19.17522433408073</v>
       </c>
       <c r="G99">
-        <v>44.60026332719911</v>
+        <v>46.56151287889379</v>
       </c>
       <c r="H99">
-        <v>7.339270813119963</v>
+        <v>8.960370445165077</v>
       </c>
       <c r="I99">
-        <v>90</v>
+        <v>2.323891368089749E-15</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>37.95202616309834</v>
       </c>
       <c r="K99">
-        <v>90</v>
+        <v>7.834408053693281</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>-1.678696710817707</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>0.03813604030673833</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>0.6507742168778932</v>
       </c>
       <c r="O99">
-        <v>0</v>
+        <v>0.4107054921676484</v>
       </c>
       <c r="P99">
-        <v>0</v>
+        <v>0.841775572594079</v>
       </c>
       <c r="Q99">
-        <v>0.1072777521556676</v>
+        <v>0.968420083068636</v>
       </c>
       <c r="R99">
-        <v>1.038843029612788</v>
+        <v>0.3964589228095207</v>
       </c>
       <c r="S99">
         <v>0</v>
       </c>
       <c r="T99">
-        <v>0.0009992122650146484</v>
+        <v>0.002717999999999776</v>
       </c>
       <c r="U99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:21">
+        <v>10</v>
+      </c>
+      <c r="V99">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="1:22">
       <c r="A100">
         <v>0</v>
       </c>
@@ -6795,55 +7092,58 @@
         <v>10</v>
       </c>
       <c r="E100">
-        <v>0.008185170348751266</v>
+        <v>359.9673947923848</v>
       </c>
       <c r="F100">
-        <v>16.6204429421083</v>
+        <v>21.67928527866341</v>
       </c>
       <c r="G100">
-        <v>43.64911458331404</v>
+        <v>42.64205780948633</v>
       </c>
       <c r="H100">
-        <v>8.016669578407303</v>
+        <v>11.8165276557744</v>
       </c>
       <c r="I100">
-        <v>90</v>
+        <v>2.158595215952678E-15</v>
       </c>
       <c r="J100">
-        <v>0</v>
+        <v>35.25253513838563</v>
       </c>
       <c r="K100">
-        <v>90</v>
+        <v>13.24565637891813</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>0.4963191824526239</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>0.04765939502974466</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>0.9673301870159056</v>
       </c>
       <c r="O100">
-        <v>0</v>
+        <v>0.5980517347070203</v>
       </c>
       <c r="P100">
-        <v>0</v>
+        <v>1.159341850864779</v>
       </c>
       <c r="Q100">
-        <v>0.1092281429230013</v>
+        <v>1.105516336207638</v>
       </c>
       <c r="R100">
-        <v>0.81328078822682</v>
+        <v>0.6611722104988529</v>
       </c>
       <c r="S100">
         <v>0</v>
       </c>
       <c r="T100">
-        <v>0.0009999275207519531</v>
+        <v>0.003149800000000091</v>
       </c>
       <c r="U100">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="V100">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
